--- a/Tree Analisys.xlsx
+++ b/Tree Analisys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yre03/Dev/Saxion/TreeTerrainAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2591DB99-3B38-BE44-A629-5D2A607C273A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6424524-4EAF-6045-833D-58BF08CF06DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="6" xr2:uid="{7D50D59F-392A-584E-BF7A-3487F0A28FF5}"/>
   </bookViews>
@@ -21,9 +21,6 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
     <sheet name="Graphs" sheetId="1" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'gpu instance tree'!$A$1:$P$101</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">'lod tree gpu'!$A$1:$P$101</definedName>
@@ -31,7 +28,7 @@
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'regular tree static'!$A$1:$P$101</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'speed tree tree'!$A$1:$P$101</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="26">
   <si>
     <t>frame</t>
   </si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>lod tree gpu</t>
+  </si>
+  <si>
+    <t>Triangles</t>
   </si>
 </sst>
 </file>
@@ -8939,6 +8939,1958 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'regular tree same material'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>regular tree same material</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'regular tree same material'!$C$1:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47938752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47938752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62534024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62534024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>62534020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD8B-EA4D-A22F-06C1C29FA6B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'regular tree static'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>regular tree static</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'regular tree static'!$C$1:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62534024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62534024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>62534020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD8B-EA4D-A22F-06C1C29FA6B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gpu instance tree'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpu instance tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'gpu instance tree'!$C$1:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62534024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62534024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>62534020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD8B-EA4D-A22F-06C1C29FA6B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'speed tree tree'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speed tree tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'speed tree tree'!$C$1:$C$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62534024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62534024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>62534020</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>62534020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BD8B-EA4D-A22F-06C1C29FA6B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'lod tree gpu'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lod tree gpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'lod tree gpu'!$C$1:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32164504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16082250</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16082250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BD8B-EA4D-A22F-06C1C29FA6B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1444550592"/>
+        <c:axId val="1475661920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1444550592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475661920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1475661920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1444550592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1172805363496683"/>
+          <c:y val="3.8146271427241245E-2"/>
+          <c:w val="0.88271948252149868"/>
+          <c:h val="0.13619654189613309"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9100,6 +11052,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11654,6 +13646,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11846,7075 +14341,45 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A80F815-CA1F-244D-B4CA-8808760CE0BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="regular cube prefab"/>
-      <sheetName val="cube prefab set to static"/>
-      <sheetName val="cube prefab with gpu instancing"/>
-      <sheetName val="cube prefab speed tree material"/>
-      <sheetName val="regular cube again"/>
-      <sheetName val="Graphs"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="I1" t="str">
-            <v>Column1.renderTime</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>1.9999999552965164E-2</v>
-          </cell>
-          <cell r="E2">
-            <v>3069</v>
-          </cell>
-          <cell r="F2">
-            <v>3069</v>
-          </cell>
-          <cell r="I2">
-            <v>5.5311298929154873E-3</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>regular cube prefab</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>1.9999999552965164E-2</v>
-          </cell>
-          <cell r="E3">
-            <v>3069</v>
-          </cell>
-          <cell r="F3">
-            <v>3069</v>
-          </cell>
-          <cell r="I3">
-            <v>5.5311298929154873E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.3333333432674408</v>
-          </cell>
-          <cell r="E4">
-            <v>6140</v>
-          </cell>
-          <cell r="F4">
-            <v>6140</v>
-          </cell>
-          <cell r="I4">
-            <v>-19075.724609375</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>3.0256006866693497E-2</v>
-          </cell>
-          <cell r="E5">
-            <v>6140</v>
-          </cell>
-          <cell r="F5">
-            <v>6140</v>
-          </cell>
-          <cell r="I5">
-            <v>-19075.724609375</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>3.7095002830028534E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>3069</v>
-          </cell>
-          <cell r="F6">
-            <v>3069</v>
-          </cell>
-          <cell r="I6">
-            <v>7.9274848103523254E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1.6719844192266464E-2</v>
-          </cell>
-          <cell r="E7">
-            <v>3069</v>
-          </cell>
-          <cell r="F7">
-            <v>3069</v>
-          </cell>
-          <cell r="I7">
-            <v>6.1220228672027588E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>1.6675153747200969E-2</v>
-          </cell>
-          <cell r="E8">
-            <v>3069</v>
-          </cell>
-          <cell r="F8">
-            <v>3069</v>
-          </cell>
-          <cell r="I8">
-            <v>5.9242160059511662E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>1.7095362767577171E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>3069</v>
-          </cell>
-          <cell r="F9">
-            <v>3069</v>
-          </cell>
-          <cell r="I9">
-            <v>6.3209808431565762E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>1.7437020316720009E-2</v>
-          </cell>
-          <cell r="E10">
-            <v>3069</v>
-          </cell>
-          <cell r="F10">
-            <v>3069</v>
-          </cell>
-          <cell r="I10">
-            <v>6.319655105471611E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>2.0652944222092628E-2</v>
-          </cell>
-          <cell r="E11">
-            <v>3069</v>
-          </cell>
-          <cell r="F11">
-            <v>3069</v>
-          </cell>
-          <cell r="I11">
-            <v>6.0281092301011086E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>2.1617228165268901E-2</v>
-          </cell>
-          <cell r="E12">
-            <v>3069</v>
-          </cell>
-          <cell r="F12">
-            <v>3069</v>
-          </cell>
-          <cell r="I12">
-            <v>7.8921457752585411E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1.87030378729105E-2</v>
-          </cell>
-          <cell r="E13">
-            <v>3069</v>
-          </cell>
-          <cell r="F13">
-            <v>3069</v>
-          </cell>
-          <cell r="I13">
-            <v>6.9521581754088402E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>2.01742984354496E-2</v>
-          </cell>
-          <cell r="E14">
-            <v>3069</v>
-          </cell>
-          <cell r="F14">
-            <v>3069</v>
-          </cell>
-          <cell r="I14">
-            <v>6.8477359600365162E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>2.1452674642205238E-2</v>
-          </cell>
-          <cell r="E15">
-            <v>3069</v>
-          </cell>
-          <cell r="F15">
-            <v>3069</v>
-          </cell>
-          <cell r="I15">
-            <v>7.2578941471874714E-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>2.0638596266508102E-2</v>
-          </cell>
-          <cell r="E16">
-            <v>3069</v>
-          </cell>
-          <cell r="F16">
-            <v>3069</v>
-          </cell>
-          <cell r="I16">
-            <v>6.5862699411809444E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>1.881864108145237E-2</v>
-          </cell>
-          <cell r="E17">
-            <v>3069</v>
-          </cell>
-          <cell r="F17">
-            <v>3069</v>
-          </cell>
-          <cell r="I17">
-            <v>6.2762419693171978E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>1.8953194841742516E-2</v>
-          </cell>
-          <cell r="E18">
-            <v>3069</v>
-          </cell>
-          <cell r="F18">
-            <v>3069</v>
-          </cell>
-          <cell r="I18">
-            <v>6.6626891493797302E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>2.058897353708744E-2</v>
-          </cell>
-          <cell r="E19">
-            <v>3069</v>
-          </cell>
-          <cell r="F19">
-            <v>3069</v>
-          </cell>
-          <cell r="I19">
-            <v>7.4288658797740936E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>1.9250635057687759E-2</v>
-          </cell>
-          <cell r="E20">
-            <v>3069</v>
-          </cell>
-          <cell r="F20">
-            <v>3069</v>
-          </cell>
-          <cell r="I20">
-            <v>6.1929798685014248E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>1.9233157858252529E-2</v>
-          </cell>
-          <cell r="E21">
-            <v>3069</v>
-          </cell>
-          <cell r="F21">
-            <v>3069</v>
-          </cell>
-          <cell r="I21">
-            <v>5.9307222254574299E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>1.9611716270446781E-2</v>
-          </cell>
-          <cell r="E22">
-            <v>3069</v>
-          </cell>
-          <cell r="F22">
-            <v>3069</v>
-          </cell>
-          <cell r="I22">
-            <v>5.9889829717576504E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>1.836702786386013E-2</v>
-          </cell>
-          <cell r="E23">
-            <v>3069</v>
-          </cell>
-          <cell r="F23">
-            <v>3069</v>
-          </cell>
-          <cell r="I23">
-            <v>5.9834830462932587E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>2.7884399518370628E-2</v>
-          </cell>
-          <cell r="E24">
-            <v>3069</v>
-          </cell>
-          <cell r="F24">
-            <v>3069</v>
-          </cell>
-          <cell r="I24">
-            <v>6.1377598904073238E-3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>1.9894402474164963E-2</v>
-          </cell>
-          <cell r="E25">
-            <v>3069</v>
-          </cell>
-          <cell r="F25">
-            <v>3069</v>
-          </cell>
-          <cell r="I25">
-            <v>5.8435490354895592E-3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>2.7451198548078537E-2</v>
-          </cell>
-          <cell r="E26">
-            <v>3069</v>
-          </cell>
-          <cell r="F26">
-            <v>3069</v>
-          </cell>
-          <cell r="I26">
-            <v>6.2096188776195049E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>2.003835141658783E-2</v>
-          </cell>
-          <cell r="E27">
-            <v>3069</v>
-          </cell>
-          <cell r="F27">
-            <v>3069</v>
-          </cell>
-          <cell r="I27">
-            <v>1.0106569156050682E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>2.1292302757501606E-2</v>
-          </cell>
-          <cell r="E28">
-            <v>3069</v>
-          </cell>
-          <cell r="F28">
-            <v>3069</v>
-          </cell>
-          <cell r="I28">
-            <v>5.9622600674629211E-3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>2.0400086417794228E-2</v>
-          </cell>
-          <cell r="E29">
-            <v>3069</v>
-          </cell>
-          <cell r="F29">
-            <v>3069</v>
-          </cell>
-          <cell r="I29">
-            <v>6.1824559234082699E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>2.4459777399897575E-2</v>
-          </cell>
-          <cell r="E30">
-            <v>3069</v>
-          </cell>
-          <cell r="F30">
-            <v>3069</v>
-          </cell>
-          <cell r="I30">
-            <v>9.120618924498558E-3</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>2.1488584578037265E-2</v>
-          </cell>
-          <cell r="E31">
-            <v>3069</v>
-          </cell>
-          <cell r="F31">
-            <v>3069</v>
-          </cell>
-          <cell r="I31">
-            <v>6.076448131352663E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>2.0541315898299217E-2</v>
-          </cell>
-          <cell r="E32">
-            <v>3069</v>
-          </cell>
-          <cell r="F32">
-            <v>3069</v>
-          </cell>
-          <cell r="I32">
-            <v>5.9732589870691299E-3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>2.1516827866435051E-2</v>
-          </cell>
-          <cell r="E33">
-            <v>3069</v>
-          </cell>
-          <cell r="F33">
-            <v>3069</v>
-          </cell>
-          <cell r="I33">
-            <v>6.6840201616287231E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>2.0360600203275681E-2</v>
-          </cell>
-          <cell r="E34">
-            <v>3069</v>
-          </cell>
-          <cell r="F34">
-            <v>3069</v>
-          </cell>
-          <cell r="I34">
-            <v>6.1514899134635925E-3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>2.3044105619192123E-2</v>
-          </cell>
-          <cell r="E35">
-            <v>3069</v>
-          </cell>
-          <cell r="F35">
-            <v>3069</v>
-          </cell>
-          <cell r="I35">
-            <v>6.6477661021053791E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>2.1013585850596428E-2</v>
-          </cell>
-          <cell r="E36">
-            <v>3069</v>
-          </cell>
-          <cell r="F36">
-            <v>3069</v>
-          </cell>
-          <cell r="I36">
-            <v>6.2361080199480057E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>2.168692834675312E-2</v>
-          </cell>
-          <cell r="E37">
-            <v>3069</v>
-          </cell>
-          <cell r="F37">
-            <v>3069</v>
-          </cell>
-          <cell r="I37">
-            <v>5.9561352245509633E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>2.1108910441398621E-2</v>
-          </cell>
-          <cell r="E38">
-            <v>3069</v>
-          </cell>
-          <cell r="F38">
-            <v>3069</v>
-          </cell>
-          <cell r="I38">
-            <v>6.2437630258500576E-3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>2.2489849478006363E-2</v>
-          </cell>
-          <cell r="E39">
-            <v>3069</v>
-          </cell>
-          <cell r="F39">
-            <v>3069</v>
-          </cell>
-          <cell r="I39">
-            <v>5.9628929011523724E-3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>2.1605720743536949E-2</v>
-          </cell>
-          <cell r="E40">
-            <v>3069</v>
-          </cell>
-          <cell r="F40">
-            <v>3069</v>
-          </cell>
-          <cell r="I40">
-            <v>6.1491797678172588E-3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>2.2542230784893036E-2</v>
-          </cell>
-          <cell r="E41">
-            <v>3069</v>
-          </cell>
-          <cell r="F41">
-            <v>3069</v>
-          </cell>
-          <cell r="I41">
-            <v>6.4937891438603401E-3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>2.1816998720169067E-2</v>
-          </cell>
-          <cell r="E42">
-            <v>3069</v>
-          </cell>
-          <cell r="F42">
-            <v>3069</v>
-          </cell>
-          <cell r="I42">
-            <v>5.9710578061640263E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>2.3440448567271233E-2</v>
-          </cell>
-          <cell r="E43">
-            <v>3069</v>
-          </cell>
-          <cell r="F43">
-            <v>3069</v>
-          </cell>
-          <cell r="I43">
-            <v>6.346563808619976E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>2.2058518603444099E-2</v>
-          </cell>
-          <cell r="E44">
-            <v>3069</v>
-          </cell>
-          <cell r="F44">
-            <v>3069</v>
-          </cell>
-          <cell r="I44">
-            <v>6.3738222233951092E-3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>2.3424316197633743E-2</v>
-          </cell>
-          <cell r="E45">
-            <v>3069</v>
-          </cell>
-          <cell r="F45">
-            <v>3069</v>
-          </cell>
-          <cell r="I45">
-            <v>5.9815691784024239E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>2.1835716441273689E-2</v>
-          </cell>
-          <cell r="E46">
-            <v>3069</v>
-          </cell>
-          <cell r="F46">
-            <v>3069</v>
-          </cell>
-          <cell r="I46">
-            <v>5.9523978270590314E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>2.7406219393014908E-2</v>
-          </cell>
-          <cell r="E47">
-            <v>3069</v>
-          </cell>
-          <cell r="F47">
-            <v>3069</v>
-          </cell>
-          <cell r="I47">
-            <v>8.874901570379734E-3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>3.0325556173920631E-2</v>
-          </cell>
-          <cell r="E48">
-            <v>3069</v>
-          </cell>
-          <cell r="F48">
-            <v>3069</v>
-          </cell>
-          <cell r="I48">
-            <v>8.7355710566043854E-3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>3.7424460053443909E-2</v>
-          </cell>
-          <cell r="E49">
-            <v>3069</v>
-          </cell>
-          <cell r="F49">
-            <v>3069</v>
-          </cell>
-          <cell r="I49">
-            <v>1.004986558109522E-2</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>3.1093092635273937E-2</v>
-          </cell>
-          <cell r="E50">
-            <v>3069</v>
-          </cell>
-          <cell r="F50">
-            <v>3069</v>
-          </cell>
-          <cell r="I50">
-            <v>1.0063458234071732E-2</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>2.3160543292760849E-2</v>
-          </cell>
-          <cell r="E51">
-            <v>3069</v>
-          </cell>
-          <cell r="F51">
-            <v>3069</v>
-          </cell>
-          <cell r="I51">
-            <v>1.0509726591408253E-2</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>2.4528719484806061E-2</v>
-          </cell>
-          <cell r="E52">
-            <v>3069</v>
-          </cell>
-          <cell r="F52">
-            <v>3069</v>
-          </cell>
-          <cell r="I52">
-            <v>6.547178141772747E-3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>2.1793680265545849E-2</v>
-          </cell>
-          <cell r="E53">
-            <v>3069</v>
-          </cell>
-          <cell r="F53">
-            <v>3069</v>
-          </cell>
-          <cell r="I53">
-            <v>5.896278191357851E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>2.3627607151865959E-2</v>
-          </cell>
-          <cell r="E54">
-            <v>3069</v>
-          </cell>
-          <cell r="F54">
-            <v>3069</v>
-          </cell>
-          <cell r="I54">
-            <v>6.0889488086104393E-3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>2.2608287632465363E-2</v>
-          </cell>
-          <cell r="E55">
-            <v>3069</v>
-          </cell>
-          <cell r="F55">
-            <v>3069</v>
-          </cell>
-          <cell r="I55">
-            <v>6.0211601667106152E-3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>2.5486292317509651E-2</v>
-          </cell>
-          <cell r="E56">
-            <v>3069</v>
-          </cell>
-          <cell r="F56">
-            <v>3069</v>
-          </cell>
-          <cell r="I56">
-            <v>7.2663379833102226E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>2.276216633617878E-2</v>
-          </cell>
-          <cell r="E57">
-            <v>3069</v>
-          </cell>
-          <cell r="F57">
-            <v>3069</v>
-          </cell>
-          <cell r="I57">
-            <v>6.0962899588048458E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>2.354857511818409E-2</v>
-          </cell>
-          <cell r="E58">
-            <v>3069</v>
-          </cell>
-          <cell r="F58">
-            <v>3069</v>
-          </cell>
-          <cell r="I58">
-            <v>5.880327895283699E-3</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>2.3104006424546245E-2</v>
-          </cell>
-          <cell r="E59">
-            <v>3069</v>
-          </cell>
-          <cell r="F59">
-            <v>3069</v>
-          </cell>
-          <cell r="I59">
-            <v>5.9032528661191463E-3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>3.9411682635545731E-2</v>
-          </cell>
-          <cell r="E60">
-            <v>3069</v>
-          </cell>
-          <cell r="F60">
-            <v>3069</v>
-          </cell>
-          <cell r="I60">
-            <v>6.2410151585936546E-3</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>2.4576723575592041E-2</v>
-          </cell>
-          <cell r="E61">
-            <v>3069</v>
-          </cell>
-          <cell r="F61">
-            <v>3069</v>
-          </cell>
-          <cell r="I61">
-            <v>7.2772381827235222E-3</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>2.3686774075031281E-2</v>
-          </cell>
-          <cell r="E62">
-            <v>3069</v>
-          </cell>
-          <cell r="F62">
-            <v>3069</v>
-          </cell>
-          <cell r="I62">
-            <v>6.0758898034691811E-3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>2.4841684848070145E-2</v>
-          </cell>
-          <cell r="E63">
-            <v>3069</v>
-          </cell>
-          <cell r="F63">
-            <v>3069</v>
-          </cell>
-          <cell r="I63">
-            <v>6.2244781292974949E-3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>2.3549115285277367E-2</v>
-          </cell>
-          <cell r="E64">
-            <v>3069</v>
-          </cell>
-          <cell r="F64">
-            <v>3069</v>
-          </cell>
-          <cell r="I64">
-            <v>5.9427968226373204E-3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>2.3790363222360611E-2</v>
-          </cell>
-          <cell r="E65">
-            <v>3069</v>
-          </cell>
-          <cell r="F65">
-            <v>3069</v>
-          </cell>
-          <cell r="I65">
-            <v>5.9433151036500931E-3</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>2.9818868264555931E-2</v>
-          </cell>
-          <cell r="E66">
-            <v>3069</v>
-          </cell>
-          <cell r="F66">
-            <v>3069</v>
-          </cell>
-          <cell r="I66">
-            <v>5.846220999956131E-3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>2.5214046239852909E-2</v>
-          </cell>
-          <cell r="E67">
-            <v>3069</v>
-          </cell>
-          <cell r="F67">
-            <v>3069</v>
-          </cell>
-          <cell r="I67">
-            <v>1.0137648321688175E-2</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>2.3103881627321243E-2</v>
-          </cell>
-          <cell r="E68">
-            <v>3069</v>
-          </cell>
-          <cell r="F68">
-            <v>3069</v>
-          </cell>
-          <cell r="I68">
-            <v>5.9372498653829098E-3</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>2.4632673710584641E-2</v>
-          </cell>
-          <cell r="E69">
-            <v>3069</v>
-          </cell>
-          <cell r="F69">
-            <v>3069</v>
-          </cell>
-          <cell r="I69">
-            <v>5.8589638210833073E-3</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>2.4140156805515289E-2</v>
-          </cell>
-          <cell r="E70">
-            <v>3069</v>
-          </cell>
-          <cell r="F70">
-            <v>3069</v>
-          </cell>
-          <cell r="I70">
-            <v>6.472438108175993E-3</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>2.4283191189169884E-2</v>
-          </cell>
-          <cell r="E71">
-            <v>3069</v>
-          </cell>
-          <cell r="F71">
-            <v>3069</v>
-          </cell>
-          <cell r="I71">
-            <v>6.0801049694418907E-3</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>2.397819422185421E-2</v>
-          </cell>
-          <cell r="E72">
-            <v>3069</v>
-          </cell>
-          <cell r="F72">
-            <v>3069</v>
-          </cell>
-          <cell r="I72">
-            <v>6.7222691141068935E-3</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>2.4733483791351318E-2</v>
-          </cell>
-          <cell r="E73">
-            <v>3069</v>
-          </cell>
-          <cell r="F73">
-            <v>3069</v>
-          </cell>
-          <cell r="I73">
-            <v>6.03075185790658E-3</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>2.2803626954555511E-2</v>
-          </cell>
-          <cell r="E74">
-            <v>3069</v>
-          </cell>
-          <cell r="F74">
-            <v>3069</v>
-          </cell>
-          <cell r="I74">
-            <v>5.9533440507948399E-3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>2.4686602875590328E-2</v>
-          </cell>
-          <cell r="E75">
-            <v>3069</v>
-          </cell>
-          <cell r="F75">
-            <v>3069</v>
-          </cell>
-          <cell r="I75">
-            <v>5.9393718838691711E-3</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>2.3858323693275452E-2</v>
-          </cell>
-          <cell r="E76">
-            <v>3069</v>
-          </cell>
-          <cell r="F76">
-            <v>3069</v>
-          </cell>
-          <cell r="I76">
-            <v>6.4270938746631154E-3</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>2.464375086128712E-2</v>
-          </cell>
-          <cell r="E77">
-            <v>3069</v>
-          </cell>
-          <cell r="F77">
-            <v>3069</v>
-          </cell>
-          <cell r="I77">
-            <v>5.9469640254974365E-3</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>2.4613376706838608E-2</v>
-          </cell>
-          <cell r="E78">
-            <v>3069</v>
-          </cell>
-          <cell r="F78">
-            <v>3069</v>
-          </cell>
-          <cell r="I78">
-            <v>6.8485657684504986E-3</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>2.5198863819241524E-2</v>
-          </cell>
-          <cell r="E79">
-            <v>3069</v>
-          </cell>
-          <cell r="F79">
-            <v>3069</v>
-          </cell>
-          <cell r="I79">
-            <v>6.0707950033247471E-3</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>2.427360974252224E-2</v>
-          </cell>
-          <cell r="E80">
-            <v>3069</v>
-          </cell>
-          <cell r="F80">
-            <v>3069</v>
-          </cell>
-          <cell r="I80">
-            <v>6.1240838840603828E-3</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>2.3721164092421532E-2</v>
-          </cell>
-          <cell r="E81">
-            <v>3069</v>
-          </cell>
-          <cell r="F81">
-            <v>3069</v>
-          </cell>
-          <cell r="I81">
-            <v>6.2900809571146965E-3</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>2.5516785681247711E-2</v>
-          </cell>
-          <cell r="E82">
-            <v>3069</v>
-          </cell>
-          <cell r="F82">
-            <v>3069</v>
-          </cell>
-          <cell r="I82">
-            <v>7.4080252088606358E-3</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>3.5049937665462494E-2</v>
-          </cell>
-          <cell r="E83">
-            <v>3069</v>
-          </cell>
-          <cell r="F83">
-            <v>3069</v>
-          </cell>
-          <cell r="I83">
-            <v>7.5544738210737714E-3</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>3.1603962182998657E-2</v>
-          </cell>
-          <cell r="E84">
-            <v>3069</v>
-          </cell>
-          <cell r="F84">
-            <v>3069</v>
-          </cell>
-          <cell r="I84">
-            <v>1.182213332504034E-2</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>2.508794330060482E-2</v>
-          </cell>
-          <cell r="E85">
-            <v>3069</v>
-          </cell>
-          <cell r="F85">
-            <v>3069</v>
-          </cell>
-          <cell r="I85">
-            <v>6.7762578837573528E-3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>2.6553427800536156E-2</v>
-          </cell>
-          <cell r="E86">
-            <v>3069</v>
-          </cell>
-          <cell r="F86">
-            <v>3069</v>
-          </cell>
-          <cell r="I86">
-            <v>6.5063731744885445E-3</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>2.4390924721956257E-2</v>
-          </cell>
-          <cell r="E87">
-            <v>3069</v>
-          </cell>
-          <cell r="F87">
-            <v>3069</v>
-          </cell>
-          <cell r="I87">
-            <v>6.6999359987676144E-3</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>2.7071818709373478E-2</v>
-          </cell>
-          <cell r="E88">
-            <v>3069</v>
-          </cell>
-          <cell r="F88">
-            <v>3069</v>
-          </cell>
-          <cell r="I88">
-            <v>7.1606729179620743E-3</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>2.7067035436630249E-2</v>
-          </cell>
-          <cell r="E89">
-            <v>3069</v>
-          </cell>
-          <cell r="F89">
-            <v>3069</v>
-          </cell>
-          <cell r="I89">
-            <v>6.2972409650683403E-3</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>2.6995172724127769E-2</v>
-          </cell>
-          <cell r="E90">
-            <v>3069</v>
-          </cell>
-          <cell r="F90">
-            <v>3069</v>
-          </cell>
-          <cell r="I90">
-            <v>6.6782580688595772E-3</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>2.4448810145258904E-2</v>
-          </cell>
-          <cell r="E91">
-            <v>3069</v>
-          </cell>
-          <cell r="F91">
-            <v>3069</v>
-          </cell>
-          <cell r="I91">
-            <v>6.0558668337762356E-3</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>2.5545815005898476E-2</v>
-          </cell>
-          <cell r="E92">
-            <v>3069</v>
-          </cell>
-          <cell r="F92">
-            <v>3069</v>
-          </cell>
-          <cell r="I92">
-            <v>6.2220171093940735E-3</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>2.4193646386265755E-2</v>
-          </cell>
-          <cell r="E93">
-            <v>3069</v>
-          </cell>
-          <cell r="F93">
-            <v>3069</v>
-          </cell>
-          <cell r="I93">
-            <v>6.2927519902586937E-3</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>2.4844162166118625E-2</v>
-          </cell>
-          <cell r="E94">
-            <v>3069</v>
-          </cell>
-          <cell r="F94">
-            <v>3069</v>
-          </cell>
-          <cell r="I94">
-            <v>6.5317978151142597E-3</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>2.5154208764433861E-2</v>
-          </cell>
-          <cell r="E95">
-            <v>3069</v>
-          </cell>
-          <cell r="F95">
-            <v>3069</v>
-          </cell>
-          <cell r="I95">
-            <v>6.4730728045105934E-3</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>2.649402804672718E-2</v>
-          </cell>
-          <cell r="E96">
-            <v>3069</v>
-          </cell>
-          <cell r="F96">
-            <v>3069</v>
-          </cell>
-          <cell r="I96">
-            <v>7.2220419533550739E-3</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>2.4695616215467456E-2</v>
-          </cell>
-          <cell r="E97">
-            <v>3069</v>
-          </cell>
-          <cell r="F97">
-            <v>3069</v>
-          </cell>
-          <cell r="I97">
-            <v>6.3736061565577984E-3</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>2.8097989037632946E-2</v>
-          </cell>
-          <cell r="E98">
-            <v>3069</v>
-          </cell>
-          <cell r="F98">
-            <v>3069</v>
-          </cell>
-          <cell r="I98">
-            <v>7.1672028861939907E-3</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>2.8999650850892067E-2</v>
-          </cell>
-          <cell r="E99">
-            <v>3069</v>
-          </cell>
-          <cell r="F99">
-            <v>3069</v>
-          </cell>
-          <cell r="I99">
-            <v>6.931522861123085E-3</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>3.370782732963562E-2</v>
-          </cell>
-          <cell r="E100">
-            <v>3069</v>
-          </cell>
-          <cell r="F100">
-            <v>3069</v>
-          </cell>
-          <cell r="I100">
-            <v>6.4620249904692173E-3</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>2.9472757130861282E-2</v>
-          </cell>
-          <cell r="E101">
-            <v>3069</v>
-          </cell>
-          <cell r="F101">
-            <v>3069</v>
-          </cell>
-          <cell r="I101">
-            <v>1.286507584154606E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="I1" t="str">
-            <v>Column1.renderTime</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>1.9999999552965164E-2</v>
-          </cell>
-          <cell r="E2">
-            <v>3069</v>
-          </cell>
-          <cell r="F2">
-            <v>3069</v>
-          </cell>
-          <cell r="I2">
-            <v>5.9492341242730618E-3</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>cube prefab set to static</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>1.9999999552965164E-2</v>
-          </cell>
-          <cell r="E3">
-            <v>3069</v>
-          </cell>
-          <cell r="F3">
-            <v>3069</v>
-          </cell>
-          <cell r="I3">
-            <v>5.9492341242730618E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.3333333432674408</v>
-          </cell>
-          <cell r="E4">
-            <v>6140</v>
-          </cell>
-          <cell r="F4">
-            <v>6140</v>
-          </cell>
-          <cell r="I4">
-            <v>-19131.484375</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>3.6323182284832001E-2</v>
-          </cell>
-          <cell r="E5">
-            <v>6140</v>
-          </cell>
-          <cell r="F5">
-            <v>6140</v>
-          </cell>
-          <cell r="I5">
-            <v>-19131.484375</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>2.7688806876540184E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>3069</v>
-          </cell>
-          <cell r="F6">
-            <v>3069</v>
-          </cell>
-          <cell r="I6">
-            <v>6.8017770536243924E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>9.8333489149808884E-3</v>
-          </cell>
-          <cell r="E7">
-            <v>3069</v>
-          </cell>
-          <cell r="F7">
-            <v>3069</v>
-          </cell>
-          <cell r="I7">
-            <v>7.3208101093769073E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>8.3526140078902245E-3</v>
-          </cell>
-          <cell r="E8">
-            <v>3069</v>
-          </cell>
-          <cell r="F8">
-            <v>3069</v>
-          </cell>
-          <cell r="I8">
-            <v>7.3208101093769073E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>1.515671331435442E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>3069</v>
-          </cell>
-          <cell r="F9">
-            <v>3069</v>
-          </cell>
-          <cell r="I9">
-            <v>6.0314671136438847E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>8.9415805414319038E-3</v>
-          </cell>
-          <cell r="E10">
-            <v>3069</v>
-          </cell>
-          <cell r="F10">
-            <v>3069</v>
-          </cell>
-          <cell r="I10">
-            <v>6.0314671136438847E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>7.8243277966976166E-3</v>
-          </cell>
-          <cell r="E11">
-            <v>3069</v>
-          </cell>
-          <cell r="F11">
-            <v>3069</v>
-          </cell>
-          <cell r="I11">
-            <v>5.530213937163353E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>8.2737244665622711E-3</v>
-          </cell>
-          <cell r="E12">
-            <v>3069</v>
-          </cell>
-          <cell r="F12">
-            <v>3069</v>
-          </cell>
-          <cell r="I12">
-            <v>5.530213937163353E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>8.9712496846914291E-3</v>
-          </cell>
-          <cell r="E13">
-            <v>3069</v>
-          </cell>
-          <cell r="F13">
-            <v>3069</v>
-          </cell>
-          <cell r="I13">
-            <v>5.9166080318391323E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>1.0992048308253288E-2</v>
-          </cell>
-          <cell r="E14">
-            <v>3069</v>
-          </cell>
-          <cell r="F14">
-            <v>3069</v>
-          </cell>
-          <cell r="I14">
-            <v>5.9166080318391323E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>1.1672615073621271E-2</v>
-          </cell>
-          <cell r="E15">
-            <v>3069</v>
-          </cell>
-          <cell r="F15">
-            <v>3069</v>
-          </cell>
-          <cell r="I15">
-            <v>7.3106670752167702E-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>1.0266680270433426E-2</v>
-          </cell>
-          <cell r="E16">
-            <v>3069</v>
-          </cell>
-          <cell r="F16">
-            <v>3069</v>
-          </cell>
-          <cell r="I16">
-            <v>7.3106670752167702E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>1.0358807630836964E-2</v>
-          </cell>
-          <cell r="E17">
-            <v>3069</v>
-          </cell>
-          <cell r="F17">
-            <v>3069</v>
-          </cell>
-          <cell r="I17">
-            <v>6.8689398467540741E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>1.0537379421293736E-2</v>
-          </cell>
-          <cell r="E18">
-            <v>3069</v>
-          </cell>
-          <cell r="F18">
-            <v>3069</v>
-          </cell>
-          <cell r="I18">
-            <v>7.4123628437519073E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>7.5757340528070927E-3</v>
-          </cell>
-          <cell r="E19">
-            <v>3069</v>
-          </cell>
-          <cell r="F19">
-            <v>3069</v>
-          </cell>
-          <cell r="I19">
-            <v>7.4123628437519073E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>1.0061020031571388E-2</v>
-          </cell>
-          <cell r="E20">
-            <v>3069</v>
-          </cell>
-          <cell r="F20">
-            <v>3069</v>
-          </cell>
-          <cell r="I20">
-            <v>6.2628937885165215E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>7.8414482995867729E-3</v>
-          </cell>
-          <cell r="E21">
-            <v>3069</v>
-          </cell>
-          <cell r="F21">
-            <v>3069</v>
-          </cell>
-          <cell r="I21">
-            <v>6.2628937885165215E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>8.6272181943058968E-3</v>
-          </cell>
-          <cell r="E22">
-            <v>3069</v>
-          </cell>
-          <cell r="F22">
-            <v>3069</v>
-          </cell>
-          <cell r="I22">
-            <v>5.7312981225550175E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>8.0841807648539543E-3</v>
-          </cell>
-          <cell r="E23">
-            <v>3069</v>
-          </cell>
-          <cell r="F23">
-            <v>3069</v>
-          </cell>
-          <cell r="I23">
-            <v>5.9030381962656975E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>9.4061819836497307E-3</v>
-          </cell>
-          <cell r="E24">
-            <v>3069</v>
-          </cell>
-          <cell r="F24">
-            <v>3069</v>
-          </cell>
-          <cell r="I24">
-            <v>6.3244770281016827E-3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>1.4637068845331669E-2</v>
-          </cell>
-          <cell r="E25">
-            <v>3069</v>
-          </cell>
-          <cell r="F25">
-            <v>3069</v>
-          </cell>
-          <cell r="I25">
-            <v>5.7870359160006046E-3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>8.3199776709079742E-3</v>
-          </cell>
-          <cell r="E26">
-            <v>3069</v>
-          </cell>
-          <cell r="F26">
-            <v>3069</v>
-          </cell>
-          <cell r="I26">
-            <v>5.7870359160006046E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>1.1435539461672306E-2</v>
-          </cell>
-          <cell r="E27">
-            <v>3069</v>
-          </cell>
-          <cell r="F27">
-            <v>3069</v>
-          </cell>
-          <cell r="I27">
-            <v>7.6265758834779263E-3</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>9.6828714013099688E-3</v>
-          </cell>
-          <cell r="E28">
-            <v>3069</v>
-          </cell>
-          <cell r="F28">
-            <v>3069</v>
-          </cell>
-          <cell r="I28">
-            <v>7.6265758834779263E-3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>8.052910678088665E-3</v>
-          </cell>
-          <cell r="E29">
-            <v>3069</v>
-          </cell>
-          <cell r="F29">
-            <v>3069</v>
-          </cell>
-          <cell r="I29">
-            <v>6.6020418889820576E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>8.9269513264298439E-3</v>
-          </cell>
-          <cell r="E30">
-            <v>3069</v>
-          </cell>
-          <cell r="F30">
-            <v>3069</v>
-          </cell>
-          <cell r="I30">
-            <v>5.9529179707169533E-3</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>8.8110305368900299E-3</v>
-          </cell>
-          <cell r="E31">
-            <v>3069</v>
-          </cell>
-          <cell r="F31">
-            <v>3069</v>
-          </cell>
-          <cell r="I31">
-            <v>5.9529179707169533E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>8.4838671609759331E-3</v>
-          </cell>
-          <cell r="E32">
-            <v>3069</v>
-          </cell>
-          <cell r="F32">
-            <v>3069</v>
-          </cell>
-          <cell r="I32">
-            <v>5.6094168685376644E-3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>8.6028054356575012E-3</v>
-          </cell>
-          <cell r="E33">
-            <v>3069</v>
-          </cell>
-          <cell r="F33">
-            <v>3069</v>
-          </cell>
-          <cell r="I33">
-            <v>5.6094168685376644E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>8.8647371158003807E-3</v>
-          </cell>
-          <cell r="E34">
-            <v>3069</v>
-          </cell>
-          <cell r="F34">
-            <v>3069</v>
-          </cell>
-          <cell r="I34">
-            <v>5.8541707694530487E-3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>9.4242850318551081E-3</v>
-          </cell>
-          <cell r="E35">
-            <v>3069</v>
-          </cell>
-          <cell r="F35">
-            <v>3069</v>
-          </cell>
-          <cell r="I35">
-            <v>6.6870339214801788E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>1.0768763720989227E-2</v>
-          </cell>
-          <cell r="E36">
-            <v>3069</v>
-          </cell>
-          <cell r="F36">
-            <v>3069</v>
-          </cell>
-          <cell r="I36">
-            <v>7.6906401664018631E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>9.7233606502413767E-3</v>
-          </cell>
-          <cell r="E37">
-            <v>3069</v>
-          </cell>
-          <cell r="F37">
-            <v>3069</v>
-          </cell>
-          <cell r="I37">
-            <v>7.6906401664018631E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>8.3620306104421616E-3</v>
-          </cell>
-          <cell r="E38">
-            <v>3069</v>
-          </cell>
-          <cell r="F38">
-            <v>3069</v>
-          </cell>
-          <cell r="I38">
-            <v>5.6728669442236423E-3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>8.2992091774940491E-3</v>
-          </cell>
-          <cell r="E39">
-            <v>3069</v>
-          </cell>
-          <cell r="F39">
-            <v>3069</v>
-          </cell>
-          <cell r="I39">
-            <v>5.6728669442236423E-3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>8.5747791454195976E-3</v>
-          </cell>
-          <cell r="E40">
-            <v>3069</v>
-          </cell>
-          <cell r="F40">
-            <v>3069</v>
-          </cell>
-          <cell r="I40">
-            <v>5.9059201739728451E-3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>1.5081515535712242E-2</v>
-          </cell>
-          <cell r="E41">
-            <v>3069</v>
-          </cell>
-          <cell r="F41">
-            <v>3069</v>
-          </cell>
-          <cell r="I41">
-            <v>5.638584028929472E-3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>8.1009510904550552E-3</v>
-          </cell>
-          <cell r="E42">
-            <v>3069</v>
-          </cell>
-          <cell r="F42">
-            <v>3069</v>
-          </cell>
-          <cell r="I42">
-            <v>5.638584028929472E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>8.5470303893089294E-3</v>
-          </cell>
-          <cell r="E43">
-            <v>3069</v>
-          </cell>
-          <cell r="F43">
-            <v>3069</v>
-          </cell>
-          <cell r="I43">
-            <v>6.0440190136432648E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>8.0633843317627907E-3</v>
-          </cell>
-          <cell r="E44">
-            <v>3069</v>
-          </cell>
-          <cell r="F44">
-            <v>3069</v>
-          </cell>
-          <cell r="I44">
-            <v>5.7632001116871834E-3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>9.2684384435415285E-3</v>
-          </cell>
-          <cell r="E45">
-            <v>3069</v>
-          </cell>
-          <cell r="F45">
-            <v>3069</v>
-          </cell>
-          <cell r="I45">
-            <v>6.1570568941533566E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>8.839326910674572E-3</v>
-          </cell>
-          <cell r="E46">
-            <v>3069</v>
-          </cell>
-          <cell r="F46">
-            <v>3069</v>
-          </cell>
-          <cell r="I46">
-            <v>6.1570568941533566E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>7.8181568533182144E-3</v>
-          </cell>
-          <cell r="E47">
-            <v>3069</v>
-          </cell>
-          <cell r="F47">
-            <v>3069</v>
-          </cell>
-          <cell r="I47">
-            <v>6.5281391143798828E-3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>8.0783413723111153E-3</v>
-          </cell>
-          <cell r="E48">
-            <v>3069</v>
-          </cell>
-          <cell r="F48">
-            <v>3069</v>
-          </cell>
-          <cell r="I48">
-            <v>5.6287702172994614E-3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>8.6531434208154678E-3</v>
-          </cell>
-          <cell r="E49">
-            <v>3069</v>
-          </cell>
-          <cell r="F49">
-            <v>3069</v>
-          </cell>
-          <cell r="I49">
-            <v>6.1254720203578472E-3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>8.6773280054330826E-3</v>
-          </cell>
-          <cell r="E50">
-            <v>3069</v>
-          </cell>
-          <cell r="F50">
-            <v>3069</v>
-          </cell>
-          <cell r="I50">
-            <v>6.1254720203578472E-3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>8.0061536282300949E-3</v>
-          </cell>
-          <cell r="E51">
-            <v>3069</v>
-          </cell>
-          <cell r="F51">
-            <v>3069</v>
-          </cell>
-          <cell r="I51">
-            <v>6.4392001368105412E-3</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>7.8958058729767799E-3</v>
-          </cell>
-          <cell r="E52">
-            <v>3069</v>
-          </cell>
-          <cell r="F52">
-            <v>3069</v>
-          </cell>
-          <cell r="I52">
-            <v>5.591467022895813E-3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>8.5911788046360016E-3</v>
-          </cell>
-          <cell r="E53">
-            <v>3069</v>
-          </cell>
-          <cell r="F53">
-            <v>3069</v>
-          </cell>
-          <cell r="I53">
-            <v>5.4999920539557934E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>8.2632871344685555E-3</v>
-          </cell>
-          <cell r="E54">
-            <v>3069</v>
-          </cell>
-          <cell r="F54">
-            <v>3069</v>
-          </cell>
-          <cell r="I54">
-            <v>5.8395331725478172E-3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>7.9160658642649651E-3</v>
-          </cell>
-          <cell r="E55">
-            <v>3069</v>
-          </cell>
-          <cell r="F55">
-            <v>3069</v>
-          </cell>
-          <cell r="I55">
-            <v>5.7110241614282131E-3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>8.4996679797768593E-3</v>
-          </cell>
-          <cell r="E56">
-            <v>3069</v>
-          </cell>
-          <cell r="F56">
-            <v>3069</v>
-          </cell>
-          <cell r="I56">
-            <v>5.4318071343004704E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>8.9524341747164726E-3</v>
-          </cell>
-          <cell r="E57">
-            <v>3069</v>
-          </cell>
-          <cell r="F57">
-            <v>3069</v>
-          </cell>
-          <cell r="I57">
-            <v>5.4318071343004704E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>8.115619421005249E-3</v>
-          </cell>
-          <cell r="E58">
-            <v>3069</v>
-          </cell>
-          <cell r="F58">
-            <v>3069</v>
-          </cell>
-          <cell r="I58">
-            <v>6.4845262095332146E-3</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>1.4956612139940262E-2</v>
-          </cell>
-          <cell r="E59">
-            <v>3069</v>
-          </cell>
-          <cell r="F59">
-            <v>3069</v>
-          </cell>
-          <cell r="I59">
-            <v>6.0684881173074245E-3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>8.2683367654681206E-3</v>
-          </cell>
-          <cell r="E60">
-            <v>3069</v>
-          </cell>
-          <cell r="F60">
-            <v>3069</v>
-          </cell>
-          <cell r="I60">
-            <v>6.0570822097361088E-3</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>9.5179760828614235E-3</v>
-          </cell>
-          <cell r="E61">
-            <v>3069</v>
-          </cell>
-          <cell r="F61">
-            <v>3069</v>
-          </cell>
-          <cell r="I61">
-            <v>6.0570822097361088E-3</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>9.3994252383708954E-3</v>
-          </cell>
-          <cell r="E62">
-            <v>3069</v>
-          </cell>
-          <cell r="F62">
-            <v>3069</v>
-          </cell>
-          <cell r="I62">
-            <v>6.3107791356742382E-3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>8.7562780827283859E-3</v>
-          </cell>
-          <cell r="E63">
-            <v>3069</v>
-          </cell>
-          <cell r="F63">
-            <v>3069</v>
-          </cell>
-          <cell r="I63">
-            <v>6.3107791356742382E-3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>7.807806134223938E-3</v>
-          </cell>
-          <cell r="E64">
-            <v>3069</v>
-          </cell>
-          <cell r="F64">
-            <v>3069</v>
-          </cell>
-          <cell r="I64">
-            <v>6.3953809440135956E-3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>8.4059480577707291E-3</v>
-          </cell>
-          <cell r="E65">
-            <v>3069</v>
-          </cell>
-          <cell r="F65">
-            <v>3069</v>
-          </cell>
-          <cell r="I65">
-            <v>5.5859899148344994E-3</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>8.7175415828824043E-3</v>
-          </cell>
-          <cell r="E66">
-            <v>3069</v>
-          </cell>
-          <cell r="F66">
-            <v>3069</v>
-          </cell>
-          <cell r="I66">
-            <v>5.5859899148344994E-3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>8.0152712762355804E-3</v>
-          </cell>
-          <cell r="E67">
-            <v>3069</v>
-          </cell>
-          <cell r="F67">
-            <v>3069</v>
-          </cell>
-          <cell r="I67">
-            <v>6.1734938062727451E-3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>8.3937393501400948E-3</v>
-          </cell>
-          <cell r="E68">
-            <v>3069</v>
-          </cell>
-          <cell r="F68">
-            <v>3069</v>
-          </cell>
-          <cell r="I68">
-            <v>5.8502079918980598E-3</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>8.1979604437947273E-3</v>
-          </cell>
-          <cell r="E69">
-            <v>3069</v>
-          </cell>
-          <cell r="F69">
-            <v>3069</v>
-          </cell>
-          <cell r="I69">
-            <v>5.6061060167849064E-3</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>8.5867252200841904E-3</v>
-          </cell>
-          <cell r="E70">
-            <v>3069</v>
-          </cell>
-          <cell r="F70">
-            <v>3069</v>
-          </cell>
-          <cell r="I70">
-            <v>5.899778101593256E-3</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>8.3296922966837883E-3</v>
-          </cell>
-          <cell r="E71">
-            <v>3069</v>
-          </cell>
-          <cell r="F71">
-            <v>3069</v>
-          </cell>
-          <cell r="I71">
-            <v>5.899778101593256E-3</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>8.0592585727572441E-3</v>
-          </cell>
-          <cell r="E72">
-            <v>3069</v>
-          </cell>
-          <cell r="F72">
-            <v>3069</v>
-          </cell>
-          <cell r="I72">
-            <v>6.0237650759518147E-3</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>8.0671403557062149E-3</v>
-          </cell>
-          <cell r="E73">
-            <v>3069</v>
-          </cell>
-          <cell r="F73">
-            <v>3069</v>
-          </cell>
-          <cell r="I73">
-            <v>5.7022240944206723E-3</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>8.7845046073198318E-3</v>
-          </cell>
-          <cell r="E74">
-            <v>3069</v>
-          </cell>
-          <cell r="F74">
-            <v>3069</v>
-          </cell>
-          <cell r="I74">
-            <v>6.0343239456415176E-3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>8.387378416955471E-3</v>
-          </cell>
-          <cell r="E75">
-            <v>3069</v>
-          </cell>
-          <cell r="F75">
-            <v>3069</v>
-          </cell>
-          <cell r="I75">
-            <v>6.0343239456415176E-3</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>1.6635797917842865E-2</v>
-          </cell>
-          <cell r="E76">
-            <v>3069</v>
-          </cell>
-          <cell r="F76">
-            <v>3069</v>
-          </cell>
-          <cell r="I76">
-            <v>5.5826371535658836E-3</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>7.6342341490089893E-3</v>
-          </cell>
-          <cell r="E77">
-            <v>3069</v>
-          </cell>
-          <cell r="F77">
-            <v>3069</v>
-          </cell>
-          <cell r="I77">
-            <v>5.5826371535658836E-3</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>7.7469190582633018E-3</v>
-          </cell>
-          <cell r="E78">
-            <v>3069</v>
-          </cell>
-          <cell r="F78">
-            <v>3069</v>
-          </cell>
-          <cell r="I78">
-            <v>5.2605560049414643E-3</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>8.6452122777700424E-3</v>
-          </cell>
-          <cell r="E79">
-            <v>3069</v>
-          </cell>
-          <cell r="F79">
-            <v>3069</v>
-          </cell>
-          <cell r="I79">
-            <v>5.2605560049414643E-3</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>8.5867047309875488E-3</v>
-          </cell>
-          <cell r="E80">
-            <v>3069</v>
-          </cell>
-          <cell r="F80">
-            <v>3069</v>
-          </cell>
-          <cell r="I80">
-            <v>6.3649900257587433E-3</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>7.6173380948603153E-3</v>
-          </cell>
-          <cell r="E81">
-            <v>3069</v>
-          </cell>
-          <cell r="F81">
-            <v>3069</v>
-          </cell>
-          <cell r="I81">
-            <v>5.7857860811054707E-3</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>8.0778272822499275E-3</v>
-          </cell>
-          <cell r="E82">
-            <v>3069</v>
-          </cell>
-          <cell r="F82">
-            <v>3069</v>
-          </cell>
-          <cell r="I82">
-            <v>5.5832797661423683E-3</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>8.494754321873188E-3</v>
-          </cell>
-          <cell r="E83">
-            <v>3069</v>
-          </cell>
-          <cell r="F83">
-            <v>3069</v>
-          </cell>
-          <cell r="I83">
-            <v>5.6037949398159981E-3</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>8.1146471202373505E-3</v>
-          </cell>
-          <cell r="E84">
-            <v>3069</v>
-          </cell>
-          <cell r="F84">
-            <v>3069</v>
-          </cell>
-          <cell r="I84">
-            <v>6.1671962030231953E-3</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>8.4423208609223366E-3</v>
-          </cell>
-          <cell r="E85">
-            <v>3069</v>
-          </cell>
-          <cell r="F85">
-            <v>3069</v>
-          </cell>
-          <cell r="I85">
-            <v>5.6214951910078526E-3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>8.2262903451919556E-3</v>
-          </cell>
-          <cell r="E86">
-            <v>3069</v>
-          </cell>
-          <cell r="F86">
-            <v>3069</v>
-          </cell>
-          <cell r="I86">
-            <v>5.70632703602314E-3</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>8.1777721643447876E-3</v>
-          </cell>
-          <cell r="E87">
-            <v>3069</v>
-          </cell>
-          <cell r="F87">
-            <v>3069</v>
-          </cell>
-          <cell r="I87">
-            <v>5.70632703602314E-3</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>7.8966422006487846E-3</v>
-          </cell>
-          <cell r="E88">
-            <v>3069</v>
-          </cell>
-          <cell r="F88">
-            <v>3069</v>
-          </cell>
-          <cell r="I88">
-            <v>5.6968061253428459E-3</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>8.6683491244912148E-3</v>
-          </cell>
-          <cell r="E89">
-            <v>3069</v>
-          </cell>
-          <cell r="F89">
-            <v>3069</v>
-          </cell>
-          <cell r="I89">
-            <v>5.6606680154800415E-3</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>8.1114079803228378E-3</v>
-          </cell>
-          <cell r="E90">
-            <v>3069</v>
-          </cell>
-          <cell r="F90">
-            <v>3069</v>
-          </cell>
-          <cell r="I90">
-            <v>5.9415269643068314E-3</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>8.4427623078227043E-3</v>
-          </cell>
-          <cell r="E91">
-            <v>3069</v>
-          </cell>
-          <cell r="F91">
-            <v>3069</v>
-          </cell>
-          <cell r="I91">
-            <v>5.8689839206635952E-3</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>8.2830889150500298E-3</v>
-          </cell>
-          <cell r="E92">
-            <v>3069</v>
-          </cell>
-          <cell r="F92">
-            <v>3069</v>
-          </cell>
-          <cell r="I92">
-            <v>5.8366241864860058E-3</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>8.2994857802987099E-3</v>
-          </cell>
-          <cell r="E93">
-            <v>3069</v>
-          </cell>
-          <cell r="F93">
-            <v>3069</v>
-          </cell>
-          <cell r="I93">
-            <v>5.7699880562722683E-3</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>1.5381406992673874E-2</v>
-          </cell>
-          <cell r="E94">
-            <v>3069</v>
-          </cell>
-          <cell r="F94">
-            <v>3069</v>
-          </cell>
-          <cell r="I94">
-            <v>6.0237208381295204E-3</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>7.8745316714048386E-3</v>
-          </cell>
-          <cell r="E95">
-            <v>3069</v>
-          </cell>
-          <cell r="F95">
-            <v>3069</v>
-          </cell>
-          <cell r="I95">
-            <v>6.0237208381295204E-3</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>8.4725460037589073E-3</v>
-          </cell>
-          <cell r="E96">
-            <v>3069</v>
-          </cell>
-          <cell r="F96">
-            <v>3069</v>
-          </cell>
-          <cell r="I96">
-            <v>5.9566670097410679E-3</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>8.2371402531862259E-3</v>
-          </cell>
-          <cell r="E97">
-            <v>3069</v>
-          </cell>
-          <cell r="F97">
-            <v>3069</v>
-          </cell>
-          <cell r="I97">
-            <v>5.6159109808504581E-3</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>8.0738533288240433E-3</v>
-          </cell>
-          <cell r="E98">
-            <v>3069</v>
-          </cell>
-          <cell r="F98">
-            <v>3069</v>
-          </cell>
-          <cell r="I98">
-            <v>5.5948570370674133E-3</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>8.437509648501873E-3</v>
-          </cell>
-          <cell r="E99">
-            <v>3069</v>
-          </cell>
-          <cell r="F99">
-            <v>3069</v>
-          </cell>
-          <cell r="I99">
-            <v>5.9356861747801304E-3</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>8.3018010482192039E-3</v>
-          </cell>
-          <cell r="E100">
-            <v>3069</v>
-          </cell>
-          <cell r="F100">
-            <v>3069</v>
-          </cell>
-          <cell r="I100">
-            <v>5.7809301652014256E-3</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>8.4955021739006042E-3</v>
-          </cell>
-          <cell r="E101">
-            <v>3069</v>
-          </cell>
-          <cell r="F101">
-            <v>3069</v>
-          </cell>
-          <cell r="I101">
-            <v>5.7106930762529373E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="I1" t="str">
-            <v>Column1.renderTime</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>1.9999999552965164E-2</v>
-          </cell>
-          <cell r="E2">
-            <v>18</v>
-          </cell>
-          <cell r="F2">
-            <v>18</v>
-          </cell>
-          <cell r="I2">
-            <v>1.2928450014442205E-3</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>cube prefab with gpu instancing material</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>1.9999999552965164E-2</v>
-          </cell>
-          <cell r="E3">
-            <v>18</v>
-          </cell>
-          <cell r="F3">
-            <v>18</v>
-          </cell>
-          <cell r="I3">
-            <v>1.2928450014442205E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.3333333432674408</v>
-          </cell>
-          <cell r="E4">
-            <v>38</v>
-          </cell>
-          <cell r="F4">
-            <v>38</v>
-          </cell>
-          <cell r="I4">
-            <v>-19212.978515625</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>2.9729798436164856E-2</v>
-          </cell>
-          <cell r="E5">
-            <v>38</v>
-          </cell>
-          <cell r="F5">
-            <v>38</v>
-          </cell>
-          <cell r="I5">
-            <v>-19212.978515625</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>2.7204975485801697E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>18</v>
-          </cell>
-          <cell r="F6">
-            <v>18</v>
-          </cell>
-          <cell r="I6">
-            <v>3.9421631954610348E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>5.0721950829029083E-3</v>
-          </cell>
-          <cell r="E7">
-            <v>18</v>
-          </cell>
-          <cell r="F7">
-            <v>18</v>
-          </cell>
-          <cell r="I7">
-            <v>1.8273360328748824E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>5.8424551971256733E-3</v>
-          </cell>
-          <cell r="E8">
-            <v>18</v>
-          </cell>
-          <cell r="F8">
-            <v>18</v>
-          </cell>
-          <cell r="I8">
-            <v>1.909960061311722E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>4.7830678522586823E-3</v>
-          </cell>
-          <cell r="E9">
-            <v>18</v>
-          </cell>
-          <cell r="F9">
-            <v>18</v>
-          </cell>
-          <cell r="I9">
-            <v>1.5281110536307096E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>6.5523800440132618E-3</v>
-          </cell>
-          <cell r="E10">
-            <v>18</v>
-          </cell>
-          <cell r="F10">
-            <v>18</v>
-          </cell>
-          <cell r="I10">
-            <v>2.3658780846744776E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>6.123189814388752E-3</v>
-          </cell>
-          <cell r="E11">
-            <v>18</v>
-          </cell>
-          <cell r="F11">
-            <v>18</v>
-          </cell>
-          <cell r="I11">
-            <v>1.7797809559851885E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>1.1372772976756096E-2</v>
-          </cell>
-          <cell r="E12">
-            <v>18</v>
-          </cell>
-          <cell r="F12">
-            <v>18</v>
-          </cell>
-          <cell r="I12">
-            <v>1.55634805560112E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>5.1190429367125043E-3</v>
-          </cell>
-          <cell r="E13">
-            <v>18</v>
-          </cell>
-          <cell r="F13">
-            <v>18</v>
-          </cell>
-          <cell r="I13">
-            <v>1.6456770244985821E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>4.2573339305818081E-3</v>
-          </cell>
-          <cell r="E14">
-            <v>18</v>
-          </cell>
-          <cell r="F14">
-            <v>18</v>
-          </cell>
-          <cell r="I14">
-            <v>1.3549929717555644E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>4.4536162167787552E-3</v>
-          </cell>
-          <cell r="E15">
-            <v>18</v>
-          </cell>
-          <cell r="F15">
-            <v>18</v>
-          </cell>
-          <cell r="I15">
-            <v>1.3052290305495264E-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>5.4110027849674234E-3</v>
-          </cell>
-          <cell r="E16">
-            <v>18</v>
-          </cell>
-          <cell r="F16">
-            <v>18</v>
-          </cell>
-          <cell r="I16">
-            <v>1.3052290305495264E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>6.3668480142951012E-3</v>
-          </cell>
-          <cell r="E17">
-            <v>18</v>
-          </cell>
-          <cell r="F17">
-            <v>18</v>
-          </cell>
-          <cell r="I17">
-            <v>1.8423040164634583E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>8.8743306696414948E-3</v>
-          </cell>
-          <cell r="E18">
-            <v>18</v>
-          </cell>
-          <cell r="F18">
-            <v>18</v>
-          </cell>
-          <cell r="I18">
-            <v>3.4228400327265263E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>5.442535039037466E-3</v>
-          </cell>
-          <cell r="E19">
-            <v>18</v>
-          </cell>
-          <cell r="F19">
-            <v>18</v>
-          </cell>
-          <cell r="I19">
-            <v>2.1366900764405727E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>5.9571787714958191E-3</v>
-          </cell>
-          <cell r="E20">
-            <v>18</v>
-          </cell>
-          <cell r="F20">
-            <v>18</v>
-          </cell>
-          <cell r="I20">
-            <v>2.4908978957682848E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>5.5424319580197334E-3</v>
-          </cell>
-          <cell r="E21">
-            <v>18</v>
-          </cell>
-          <cell r="F21">
-            <v>18</v>
-          </cell>
-          <cell r="I21">
-            <v>1.9974089227616787E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>4.4759837910532951E-3</v>
-          </cell>
-          <cell r="E22">
-            <v>18</v>
-          </cell>
-          <cell r="F22">
-            <v>18</v>
-          </cell>
-          <cell r="I22">
-            <v>1.6269360203295948E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>3.9652269333600998E-3</v>
-          </cell>
-          <cell r="E23">
-            <v>18</v>
-          </cell>
-          <cell r="F23">
-            <v>18</v>
-          </cell>
-          <cell r="I23">
-            <v>1.2076270068064332E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>4.1501238010823727E-3</v>
-          </cell>
-          <cell r="E24">
-            <v>18</v>
-          </cell>
-          <cell r="F24">
-            <v>18</v>
-          </cell>
-          <cell r="I24">
-            <v>1.279540010727942E-3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>4.4423039071261883E-3</v>
-          </cell>
-          <cell r="E25">
-            <v>18</v>
-          </cell>
-          <cell r="F25">
-            <v>18</v>
-          </cell>
-          <cell r="I25">
-            <v>1.3161050155758858E-3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>4.2982171289622784E-3</v>
-          </cell>
-          <cell r="E26">
-            <v>18</v>
-          </cell>
-          <cell r="F26">
-            <v>18</v>
-          </cell>
-          <cell r="I26">
-            <v>1.3189560268074276E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>4.5857462100684643E-3</v>
-          </cell>
-          <cell r="E27">
-            <v>18</v>
-          </cell>
-          <cell r="F27">
-            <v>18</v>
-          </cell>
-          <cell r="I27">
-            <v>1.6330650541931391E-3</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>5.049457773566246E-3</v>
-          </cell>
-          <cell r="E28">
-            <v>18</v>
-          </cell>
-          <cell r="F28">
-            <v>18</v>
-          </cell>
-          <cell r="I28">
-            <v>1.9289710326120255E-3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>4.479612223803997E-3</v>
-          </cell>
-          <cell r="E29">
-            <v>18</v>
-          </cell>
-          <cell r="F29">
-            <v>18</v>
-          </cell>
-          <cell r="I29">
-            <v>1.4030199963599443E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>4.0380829013884068E-3</v>
-          </cell>
-          <cell r="E30">
-            <v>18</v>
-          </cell>
-          <cell r="F30">
-            <v>18</v>
-          </cell>
-          <cell r="I30">
-            <v>1.2094449484720828E-3</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>5.0450540147721767E-3</v>
-          </cell>
-          <cell r="E31">
-            <v>18</v>
-          </cell>
-          <cell r="F31">
-            <v>18</v>
-          </cell>
-          <cell r="I31">
-            <v>1.825041021220386E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>4.5620030723512173E-3</v>
-          </cell>
-          <cell r="E32">
-            <v>18</v>
-          </cell>
-          <cell r="F32">
-            <v>18</v>
-          </cell>
-          <cell r="I32">
-            <v>1.4405939728021622E-3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>4.0588937699794769E-3</v>
-          </cell>
-          <cell r="E33">
-            <v>18</v>
-          </cell>
-          <cell r="F33">
-            <v>18</v>
-          </cell>
-          <cell r="I33">
-            <v>1.2968749506399035E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>4.2401649989187717E-3</v>
-          </cell>
-          <cell r="E34">
-            <v>18</v>
-          </cell>
-          <cell r="F34">
-            <v>18</v>
-          </cell>
-          <cell r="I34">
-            <v>1.3112539891153576E-3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>4.4640479609370232E-3</v>
-          </cell>
-          <cell r="E35">
-            <v>18</v>
-          </cell>
-          <cell r="F35">
-            <v>18</v>
-          </cell>
-          <cell r="I35">
-            <v>1.5026730252429843E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>5.052490159869194E-3</v>
-          </cell>
-          <cell r="E36">
-            <v>18</v>
-          </cell>
-          <cell r="F36">
-            <v>18</v>
-          </cell>
-          <cell r="I36">
-            <v>1.6509339911863208E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>4.569697193801403E-3</v>
-          </cell>
-          <cell r="E37">
-            <v>18</v>
-          </cell>
-          <cell r="F37">
-            <v>18</v>
-          </cell>
-          <cell r="I37">
-            <v>1.4462439576163888E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>4.7003650106489658E-3</v>
-          </cell>
-          <cell r="E38">
-            <v>18</v>
-          </cell>
-          <cell r="F38">
-            <v>18</v>
-          </cell>
-          <cell r="I38">
-            <v>1.5900339931249621E-3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>4.6880887821316719E-3</v>
-          </cell>
-          <cell r="E39">
-            <v>18</v>
-          </cell>
-          <cell r="F39">
-            <v>18</v>
-          </cell>
-          <cell r="I39">
-            <v>1.5277370112016797E-3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>4.7028819099068642E-3</v>
-          </cell>
-          <cell r="E40">
-            <v>18</v>
-          </cell>
-          <cell r="F40">
-            <v>18</v>
-          </cell>
-          <cell r="I40">
-            <v>1.6998159699141979E-3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>4.6277837827801713E-3</v>
-          </cell>
-          <cell r="E41">
-            <v>18</v>
-          </cell>
-          <cell r="F41">
-            <v>18</v>
-          </cell>
-          <cell r="I41">
-            <v>1.4345089439302685E-3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>1.110451202839613E-2</v>
-          </cell>
-          <cell r="E42">
-            <v>18</v>
-          </cell>
-          <cell r="F42">
-            <v>18</v>
-          </cell>
-          <cell r="I42">
-            <v>1.7769689438864589E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>4.5399870723485947E-3</v>
-          </cell>
-          <cell r="E43">
-            <v>18</v>
-          </cell>
-          <cell r="F43">
-            <v>18</v>
-          </cell>
-          <cell r="I43">
-            <v>1.5877250116318464E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>4.8696631565690041E-3</v>
-          </cell>
-          <cell r="E44">
-            <v>18</v>
-          </cell>
-          <cell r="F44">
-            <v>18</v>
-          </cell>
-          <cell r="I44">
-            <v>1.611231011338532E-3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>4.8854178749024868E-3</v>
-          </cell>
-          <cell r="E45">
-            <v>18</v>
-          </cell>
-          <cell r="F45">
-            <v>18</v>
-          </cell>
-          <cell r="I45">
-            <v>1.6082810470834377E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>4.5800851657986641E-3</v>
-          </cell>
-          <cell r="E46">
-            <v>18</v>
-          </cell>
-          <cell r="F46">
-            <v>18</v>
-          </cell>
-          <cell r="I46">
-            <v>1.4702510088682177E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>4.7280220314860344E-3</v>
-          </cell>
-          <cell r="E47">
-            <v>18</v>
-          </cell>
-          <cell r="F47">
-            <v>18</v>
-          </cell>
-          <cell r="I47">
-            <v>1.5867119655013084E-3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>5.1459032110869884E-3</v>
-          </cell>
-          <cell r="E48">
-            <v>18</v>
-          </cell>
-          <cell r="F48">
-            <v>18</v>
-          </cell>
-          <cell r="I48">
-            <v>1.7422649543732405E-3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>5.2771777845919132E-3</v>
-          </cell>
-          <cell r="E49">
-            <v>18</v>
-          </cell>
-          <cell r="F49">
-            <v>18</v>
-          </cell>
-          <cell r="I49">
-            <v>1.7129189800471067E-3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>4.8897550441324711E-3</v>
-          </cell>
-          <cell r="E50">
-            <v>18</v>
-          </cell>
-          <cell r="F50">
-            <v>18</v>
-          </cell>
-          <cell r="I50">
-            <v>1.5189490513876081E-3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>5.2912980318069458E-3</v>
-          </cell>
-          <cell r="E51">
-            <v>18</v>
-          </cell>
-          <cell r="F51">
-            <v>18</v>
-          </cell>
-          <cell r="I51">
-            <v>1.8671590369194748E-3</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>5.5025629699230194E-3</v>
-          </cell>
-          <cell r="E52">
-            <v>18</v>
-          </cell>
-          <cell r="F52">
-            <v>18</v>
-          </cell>
-          <cell r="I52">
-            <v>1.805849955417216E-3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>5.1183090545237073E-3</v>
-          </cell>
-          <cell r="E53">
-            <v>18</v>
-          </cell>
-          <cell r="F53">
-            <v>18</v>
-          </cell>
-          <cell r="I53">
-            <v>1.6796089475974441E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>5.7107917964458474E-3</v>
-          </cell>
-          <cell r="E54">
-            <v>18</v>
-          </cell>
-          <cell r="F54">
-            <v>18</v>
-          </cell>
-          <cell r="I54">
-            <v>1.9275930244475603E-3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>6.7760101519525051E-3</v>
-          </cell>
-          <cell r="E55">
-            <v>18</v>
-          </cell>
-          <cell r="F55">
-            <v>18</v>
-          </cell>
-          <cell r="I55">
-            <v>2.6686419732868671E-3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>5.2191321738064289E-3</v>
-          </cell>
-          <cell r="E56">
-            <v>18</v>
-          </cell>
-          <cell r="F56">
-            <v>18</v>
-          </cell>
-          <cell r="I56">
-            <v>1.7147259786725044E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>5.3193718194961548E-3</v>
-          </cell>
-          <cell r="E57">
-            <v>18</v>
-          </cell>
-          <cell r="F57">
-            <v>18</v>
-          </cell>
-          <cell r="I57">
-            <v>1.9941339269280438E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>5.1115350797772408E-3</v>
-          </cell>
-          <cell r="E58">
-            <v>18</v>
-          </cell>
-          <cell r="F58">
-            <v>18</v>
-          </cell>
-          <cell r="I58">
-            <v>1.8808089662343264E-3</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>4.393136128783226E-3</v>
-          </cell>
-          <cell r="E59">
-            <v>18</v>
-          </cell>
-          <cell r="F59">
-            <v>18</v>
-          </cell>
-          <cell r="I59">
-            <v>1.4200620353221893E-3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>4.6036220155656338E-3</v>
-          </cell>
-          <cell r="E60">
-            <v>18</v>
-          </cell>
-          <cell r="F60">
-            <v>18</v>
-          </cell>
-          <cell r="I60">
-            <v>1.5208009863272309E-3</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>4.87503781914711E-3</v>
-          </cell>
-          <cell r="E61">
-            <v>18</v>
-          </cell>
-          <cell r="F61">
-            <v>18</v>
-          </cell>
-          <cell r="I61">
-            <v>1.6711089992895725E-3</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>4.2002210393548012E-3</v>
-          </cell>
-          <cell r="E62">
-            <v>18</v>
-          </cell>
-          <cell r="F62">
-            <v>18</v>
-          </cell>
-          <cell r="I62">
-            <v>1.335398992523551E-3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>4.3088127858936787E-3</v>
-          </cell>
-          <cell r="E63">
-            <v>18</v>
-          </cell>
-          <cell r="F63">
-            <v>18</v>
-          </cell>
-          <cell r="I63">
-            <v>1.4849209692329168E-3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>5.6111821904778481E-3</v>
-          </cell>
-          <cell r="E64">
-            <v>18</v>
-          </cell>
-          <cell r="F64">
-            <v>18</v>
-          </cell>
-          <cell r="I64">
-            <v>2.2120610810816288E-3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>5.0881030037999153E-3</v>
-          </cell>
-          <cell r="E65">
-            <v>18</v>
-          </cell>
-          <cell r="F65">
-            <v>18</v>
-          </cell>
-          <cell r="I65">
-            <v>1.5259729698300362E-3</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>6.4096120186150074E-3</v>
-          </cell>
-          <cell r="E66">
-            <v>18</v>
-          </cell>
-          <cell r="F66">
-            <v>18</v>
-          </cell>
-          <cell r="I66">
-            <v>2.2163940593600277E-3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>5.7356790639460087E-3</v>
-          </cell>
-          <cell r="E67">
-            <v>18</v>
-          </cell>
-          <cell r="F67">
-            <v>18</v>
-          </cell>
-          <cell r="I67">
-            <v>1.9443690543994308E-3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>4.5216372236609459E-3</v>
-          </cell>
-          <cell r="E68">
-            <v>18</v>
-          </cell>
-          <cell r="F68">
-            <v>18</v>
-          </cell>
-          <cell r="I68">
-            <v>1.3820070307701828E-3</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>4.1102971881628036E-3</v>
-          </cell>
-          <cell r="E69">
-            <v>18</v>
-          </cell>
-          <cell r="F69">
-            <v>18</v>
-          </cell>
-          <cell r="I69">
-            <v>1.3163300463929772E-3</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>4.3404088355600834E-3</v>
-          </cell>
-          <cell r="E70">
-            <v>18</v>
-          </cell>
-          <cell r="F70">
-            <v>18</v>
-          </cell>
-          <cell r="I70">
-            <v>1.3497760519385338E-3</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>1.064377184957266E-2</v>
-          </cell>
-          <cell r="E71">
-            <v>18</v>
-          </cell>
-          <cell r="F71">
-            <v>18</v>
-          </cell>
-          <cell r="I71">
-            <v>1.8153289565816519E-3</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>4.178282804787159E-3</v>
-          </cell>
-          <cell r="E72">
-            <v>18</v>
-          </cell>
-          <cell r="F72">
-            <v>18</v>
-          </cell>
-          <cell r="I72">
-            <v>1.2274780310690403E-3</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>4.055424127727747E-3</v>
-          </cell>
-          <cell r="E73">
-            <v>18</v>
-          </cell>
-          <cell r="F73">
-            <v>18</v>
-          </cell>
-          <cell r="I73">
-            <v>1.4059849781915545E-3</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>4.7677177935838699E-3</v>
-          </cell>
-          <cell r="E74">
-            <v>18</v>
-          </cell>
-          <cell r="F74">
-            <v>18</v>
-          </cell>
-          <cell r="I74">
-            <v>1.5848269686102867E-3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>4.3209190480411053E-3</v>
-          </cell>
-          <cell r="E75">
-            <v>18</v>
-          </cell>
-          <cell r="F75">
-            <v>18</v>
-          </cell>
-          <cell r="I75">
-            <v>1.3518530176952481E-3</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>3.970160149037838E-3</v>
-          </cell>
-          <cell r="E76">
-            <v>18</v>
-          </cell>
-          <cell r="F76">
-            <v>18</v>
-          </cell>
-          <cell r="I76">
-            <v>1.1791229480877521E-3</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>4.1748438961803913E-3</v>
-          </cell>
-          <cell r="E77">
-            <v>18</v>
-          </cell>
-          <cell r="F77">
-            <v>18</v>
-          </cell>
-          <cell r="I77">
-            <v>1.3372090179473162E-3</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>4.9439189024269581E-3</v>
-          </cell>
-          <cell r="E78">
-            <v>18</v>
-          </cell>
-          <cell r="F78">
-            <v>18</v>
-          </cell>
-          <cell r="I78">
-            <v>1.7247999785467984E-3</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>4.2087379842996597E-3</v>
-          </cell>
-          <cell r="E79">
-            <v>18</v>
-          </cell>
-          <cell r="F79">
-            <v>18</v>
-          </cell>
-          <cell r="I79">
-            <v>1.348432037048042E-3</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>4.6393470838665962E-3</v>
-          </cell>
-          <cell r="E80">
-            <v>18</v>
-          </cell>
-          <cell r="F80">
-            <v>18</v>
-          </cell>
-          <cell r="I80">
-            <v>1.3968710554763677E-3</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>5.0373547710478306E-3</v>
-          </cell>
-          <cell r="E81">
-            <v>18</v>
-          </cell>
-          <cell r="F81">
-            <v>18</v>
-          </cell>
-          <cell r="I81">
-            <v>1.7002950189635158E-3</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>4.5984531752765179E-3</v>
-          </cell>
-          <cell r="E82">
-            <v>18</v>
-          </cell>
-          <cell r="F82">
-            <v>18</v>
-          </cell>
-          <cell r="I82">
-            <v>1.500144018791616E-3</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>4.8330738209187984E-3</v>
-          </cell>
-          <cell r="E83">
-            <v>18</v>
-          </cell>
-          <cell r="F83">
-            <v>18</v>
-          </cell>
-          <cell r="I83">
-            <v>1.6679270192980768E-3</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>7.5771398842334747E-3</v>
-          </cell>
-          <cell r="E84">
-            <v>18</v>
-          </cell>
-          <cell r="F84">
-            <v>18</v>
-          </cell>
-          <cell r="I84">
-            <v>4.2009148746728897E-3</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>4.8029818572103977E-3</v>
-          </cell>
-          <cell r="E85">
-            <v>18</v>
-          </cell>
-          <cell r="F85">
-            <v>18</v>
-          </cell>
-          <cell r="I85">
-            <v>1.645495998673141E-3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>4.6441699378192433E-3</v>
-          </cell>
-          <cell r="E86">
-            <v>18</v>
-          </cell>
-          <cell r="F86">
-            <v>18</v>
-          </cell>
-          <cell r="I86">
-            <v>1.5740760136395693E-3</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>4.6353819780051708E-3</v>
-          </cell>
-          <cell r="E87">
-            <v>18</v>
-          </cell>
-          <cell r="F87">
-            <v>18</v>
-          </cell>
-          <cell r="I87">
-            <v>1.4421989908441901E-3</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>4.5006079599261284E-3</v>
-          </cell>
-          <cell r="E88">
-            <v>18</v>
-          </cell>
-          <cell r="F88">
-            <v>18</v>
-          </cell>
-          <cell r="I88">
-            <v>1.3517850311473012E-3</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>4.6537159942090511E-3</v>
-          </cell>
-          <cell r="E89">
-            <v>18</v>
-          </cell>
-          <cell r="F89">
-            <v>18</v>
-          </cell>
-          <cell r="I89">
-            <v>1.415289007127285E-3</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>4.8248427920043468E-3</v>
-          </cell>
-          <cell r="E90">
-            <v>18</v>
-          </cell>
-          <cell r="F90">
-            <v>18</v>
-          </cell>
-          <cell r="I90">
-            <v>1.5289629809558392E-3</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>5.8872909285128117E-3</v>
-          </cell>
-          <cell r="E91">
-            <v>18</v>
-          </cell>
-          <cell r="F91">
-            <v>18</v>
-          </cell>
-          <cell r="I91">
-            <v>2.1757150534540415E-3</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>4.7310269437730312E-3</v>
-          </cell>
-          <cell r="E92">
-            <v>18</v>
-          </cell>
-          <cell r="F92">
-            <v>18</v>
-          </cell>
-          <cell r="I92">
-            <v>1.4758269535377622E-3</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>4.630024079233408E-3</v>
-          </cell>
-          <cell r="E93">
-            <v>18</v>
-          </cell>
-          <cell r="F93">
-            <v>18</v>
-          </cell>
-          <cell r="I93">
-            <v>1.4859699876978993E-3</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>4.759875126183033E-3</v>
-          </cell>
-          <cell r="E94">
-            <v>18</v>
-          </cell>
-          <cell r="F94">
-            <v>18</v>
-          </cell>
-          <cell r="I94">
-            <v>1.5279599465429785E-3</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>5.013028159737587E-3</v>
-          </cell>
-          <cell r="E95">
-            <v>18</v>
-          </cell>
-          <cell r="F95">
-            <v>18</v>
-          </cell>
-          <cell r="I95">
-            <v>1.8681009532883763E-3</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>4.2923297733068466E-3</v>
-          </cell>
-          <cell r="E96">
-            <v>18</v>
-          </cell>
-          <cell r="F96">
-            <v>18</v>
-          </cell>
-          <cell r="I96">
-            <v>1.3646259903907776E-3</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>4.7849598340690136E-3</v>
-          </cell>
-          <cell r="E97">
-            <v>18</v>
-          </cell>
-          <cell r="F97">
-            <v>18</v>
-          </cell>
-          <cell r="I97">
-            <v>1.5281749656423929E-3</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>5.1634539850056171E-3</v>
-          </cell>
-          <cell r="E98">
-            <v>18</v>
-          </cell>
-          <cell r="F98">
-            <v>18</v>
-          </cell>
-          <cell r="I98">
-            <v>1.8027100013569E-3</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>4.6502081677317619E-3</v>
-          </cell>
-          <cell r="E99">
-            <v>18</v>
-          </cell>
-          <cell r="F99">
-            <v>18</v>
-          </cell>
-          <cell r="I99">
-            <v>1.5730890445411205E-3</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>4.2793569155037403E-3</v>
-          </cell>
-          <cell r="E100">
-            <v>18</v>
-          </cell>
-          <cell r="F100">
-            <v>18</v>
-          </cell>
-          <cell r="I100">
-            <v>1.3080709613859653E-3</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>4.427966196089983E-3</v>
-          </cell>
-          <cell r="E101">
-            <v>18</v>
-          </cell>
-          <cell r="F101">
-            <v>18</v>
-          </cell>
-          <cell r="I101">
-            <v>1.4464959967881441E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="I1" t="str">
-            <v>Column1.renderTime</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>1.9999999552965164E-2</v>
-          </cell>
-          <cell r="E2">
-            <v>3069</v>
-          </cell>
-          <cell r="F2">
-            <v>3069</v>
-          </cell>
-          <cell r="I2">
-            <v>5.8578299358487129E-3</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>cube prefab speed tree material</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>1.9999999552965164E-2</v>
-          </cell>
-          <cell r="E3">
-            <v>3069</v>
-          </cell>
-          <cell r="F3">
-            <v>3069</v>
-          </cell>
-          <cell r="I3">
-            <v>5.8578299358487129E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.3333333432674408</v>
-          </cell>
-          <cell r="E4">
-            <v>6140</v>
-          </cell>
-          <cell r="F4">
-            <v>6140</v>
-          </cell>
-          <cell r="I4">
-            <v>-19532.44921875</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>3.7781901657581329E-2</v>
-          </cell>
-          <cell r="E5">
-            <v>6140</v>
-          </cell>
-          <cell r="F5">
-            <v>6140</v>
-          </cell>
-          <cell r="I5">
-            <v>-19532.44921875</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>5.3551141172647483E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>3069</v>
-          </cell>
-          <cell r="F6">
-            <v>3069</v>
-          </cell>
-          <cell r="I6">
-            <v>7.821383886039257E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1.7503466457128525E-2</v>
-          </cell>
-          <cell r="E7">
-            <v>3069</v>
-          </cell>
-          <cell r="F7">
-            <v>3069</v>
-          </cell>
-          <cell r="I7">
-            <v>7.3656467720866203E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>1.0672852396965029E-2</v>
-          </cell>
-          <cell r="E8">
-            <v>3069</v>
-          </cell>
-          <cell r="F8">
-            <v>3069</v>
-          </cell>
-          <cell r="I8">
-            <v>7.284585852175951E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>1.1974352411925793E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>3069</v>
-          </cell>
-          <cell r="F9">
-            <v>3069</v>
-          </cell>
-          <cell r="I9">
-            <v>8.8049471378326416E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>1.1387334205210207E-2</v>
-          </cell>
-          <cell r="E10">
-            <v>3069</v>
-          </cell>
-          <cell r="F10">
-            <v>3069</v>
-          </cell>
-          <cell r="I10">
-            <v>8.1550786271691322E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>1.1138553731143476E-2</v>
-          </cell>
-          <cell r="E11">
-            <v>3069</v>
-          </cell>
-          <cell r="F11">
-            <v>3069</v>
-          </cell>
-          <cell r="I11">
-            <v>7.2073210030794144E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>1.139019336551428E-2</v>
-          </cell>
-          <cell r="E12">
-            <v>3069</v>
-          </cell>
-          <cell r="F12">
-            <v>3069</v>
-          </cell>
-          <cell r="I12">
-            <v>6.8901628255844116E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1.0049530304968355E-2</v>
-          </cell>
-          <cell r="E13">
-            <v>3069</v>
-          </cell>
-          <cell r="F13">
-            <v>3069</v>
-          </cell>
-          <cell r="I13">
-            <v>6.4745768904685974E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>1.0123059153556824E-2</v>
-          </cell>
-          <cell r="E14">
-            <v>3069</v>
-          </cell>
-          <cell r="F14">
-            <v>3069</v>
-          </cell>
-          <cell r="I14">
-            <v>6.5945959649980068E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>9.1350656002759933E-3</v>
-          </cell>
-          <cell r="E15">
-            <v>3069</v>
-          </cell>
-          <cell r="F15">
-            <v>3069</v>
-          </cell>
-          <cell r="I15">
-            <v>6.768140010535717E-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>9.8147559911012632E-3</v>
-          </cell>
-          <cell r="E16">
-            <v>3069</v>
-          </cell>
-          <cell r="F16">
-            <v>3069</v>
-          </cell>
-          <cell r="I16">
-            <v>6.5940842032432556E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>1.2652367353439333E-2</v>
-          </cell>
-          <cell r="E17">
-            <v>3069</v>
-          </cell>
-          <cell r="F17">
-            <v>3069</v>
-          </cell>
-          <cell r="I17">
-            <v>7.4146180413663387E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>9.7658038139343279E-3</v>
-          </cell>
-          <cell r="E18">
-            <v>3069</v>
-          </cell>
-          <cell r="F18">
-            <v>3069</v>
-          </cell>
-          <cell r="I18">
-            <v>6.913128774613142E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>1.1001196689903736E-2</v>
-          </cell>
-          <cell r="E19">
-            <v>3069</v>
-          </cell>
-          <cell r="F19">
-            <v>3069</v>
-          </cell>
-          <cell r="I19">
-            <v>6.2611340545117855E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>1.0222490876913071E-2</v>
-          </cell>
-          <cell r="E20">
-            <v>3069</v>
-          </cell>
-          <cell r="F20">
-            <v>3069</v>
-          </cell>
-          <cell r="I20">
-            <v>6.8304617889225483E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>1.7637342214584351E-2</v>
-          </cell>
-          <cell r="E21">
-            <v>3069</v>
-          </cell>
-          <cell r="F21">
-            <v>3069</v>
-          </cell>
-          <cell r="I21">
-            <v>6.5101198852062234E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>9.5036663115024567E-3</v>
-          </cell>
-          <cell r="E22">
-            <v>3069</v>
-          </cell>
-          <cell r="F22">
-            <v>3069</v>
-          </cell>
-          <cell r="I22">
-            <v>6.3510769978165627E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>1.08767319470644E-2</v>
-          </cell>
-          <cell r="E23">
-            <v>3069</v>
-          </cell>
-          <cell r="F23">
-            <v>3069</v>
-          </cell>
-          <cell r="I23">
-            <v>7.4384408071637154E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>9.5820808783173561E-3</v>
-          </cell>
-          <cell r="E24">
-            <v>3069</v>
-          </cell>
-          <cell r="F24">
-            <v>3069</v>
-          </cell>
-          <cell r="I24">
-            <v>6.4153578132390976E-3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>1.030370220541954E-2</v>
-          </cell>
-          <cell r="E25">
-            <v>3069</v>
-          </cell>
-          <cell r="F25">
-            <v>3069</v>
-          </cell>
-          <cell r="I25">
-            <v>7.3371878825128078E-3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>9.1106416657567042E-3</v>
-          </cell>
-          <cell r="E26">
-            <v>3069</v>
-          </cell>
-          <cell r="F26">
-            <v>3069</v>
-          </cell>
-          <cell r="I26">
-            <v>6.5149790607392788E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>1.1290702968835831E-2</v>
-          </cell>
-          <cell r="E27">
-            <v>3069</v>
-          </cell>
-          <cell r="F27">
-            <v>3069</v>
-          </cell>
-          <cell r="I27">
-            <v>6.6278032027184963E-3</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>9.6282176673412323E-3</v>
-          </cell>
-          <cell r="E28">
-            <v>3069</v>
-          </cell>
-          <cell r="F28">
-            <v>3069</v>
-          </cell>
-          <cell r="I28">
-            <v>6.4002829603850842E-3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>1.0701923631131647E-2</v>
-          </cell>
-          <cell r="E29">
-            <v>3069</v>
-          </cell>
-          <cell r="F29">
-            <v>3069</v>
-          </cell>
-          <cell r="I29">
-            <v>7.5312918052077293E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>9.9942376837134361E-3</v>
-          </cell>
-          <cell r="E30">
-            <v>3069</v>
-          </cell>
-          <cell r="F30">
-            <v>3069</v>
-          </cell>
-          <cell r="I30">
-            <v>6.731254979968071E-3</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>1.0965690948069096E-2</v>
-          </cell>
-          <cell r="E31">
-            <v>3069</v>
-          </cell>
-          <cell r="F31">
-            <v>3069</v>
-          </cell>
-          <cell r="I31">
-            <v>7.6441578567028046E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>1.1618643999099731E-2</v>
-          </cell>
-          <cell r="E32">
-            <v>3069</v>
-          </cell>
-          <cell r="F32">
-            <v>3069</v>
-          </cell>
-          <cell r="I32">
-            <v>7.646752055734396E-3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>1.1802304536104204E-2</v>
-          </cell>
-          <cell r="E33">
-            <v>3069</v>
-          </cell>
-          <cell r="F33">
-            <v>3069</v>
-          </cell>
-          <cell r="I33">
-            <v>7.9713612794876099E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>1.2111762538552284E-2</v>
-          </cell>
-          <cell r="E34">
-            <v>3069</v>
-          </cell>
-          <cell r="F34">
-            <v>3069</v>
-          </cell>
-          <cell r="I34">
-            <v>7.5349719263613224E-3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>1.6742270439863205E-2</v>
-          </cell>
-          <cell r="E35">
-            <v>3069</v>
-          </cell>
-          <cell r="F35">
-            <v>3069</v>
-          </cell>
-          <cell r="I35">
-            <v>6.6488292068243027E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>1.1570198461413383E-2</v>
-          </cell>
-          <cell r="E36">
-            <v>3069</v>
-          </cell>
-          <cell r="F36">
-            <v>3069</v>
-          </cell>
-          <cell r="I36">
-            <v>7.6071219518780708E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>1.3587001711130144E-2</v>
-          </cell>
-          <cell r="E37">
-            <v>3069</v>
-          </cell>
-          <cell r="F37">
-            <v>3069</v>
-          </cell>
-          <cell r="I37">
-            <v>9.2382151633501053E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>1.144221518188715E-2</v>
-          </cell>
-          <cell r="E38">
-            <v>3069</v>
-          </cell>
-          <cell r="F38">
-            <v>3069</v>
-          </cell>
-          <cell r="I38">
-            <v>7.4762338772416115E-3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>1.3874617405235767E-2</v>
-          </cell>
-          <cell r="E39">
-            <v>3069</v>
-          </cell>
-          <cell r="F39">
-            <v>3069</v>
-          </cell>
-          <cell r="I39">
-            <v>9.9861398339271563E-3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>1.0528756305575371E-2</v>
-          </cell>
-          <cell r="E40">
-            <v>3069</v>
-          </cell>
-          <cell r="F40">
-            <v>3069</v>
-          </cell>
-          <cell r="I40">
-            <v>7.1868021041154861E-3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>9.2863058671355247E-3</v>
-          </cell>
-          <cell r="E41">
-            <v>3069</v>
-          </cell>
-          <cell r="F41">
-            <v>3069</v>
-          </cell>
-          <cell r="I41">
-            <v>6.3625420443713674E-3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>9.6332207322120684E-3</v>
-          </cell>
-          <cell r="E42">
-            <v>3069</v>
-          </cell>
-          <cell r="F42">
-            <v>3069</v>
-          </cell>
-          <cell r="I42">
-            <v>6.6645629703998566E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>9.1011989861726761E-3</v>
-          </cell>
-          <cell r="E43">
-            <v>3069</v>
-          </cell>
-          <cell r="F43">
-            <v>3069</v>
-          </cell>
-          <cell r="I43">
-            <v>6.2224729917943478E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>9.9919009953737259E-3</v>
-          </cell>
-          <cell r="E44">
-            <v>3069</v>
-          </cell>
-          <cell r="F44">
-            <v>3069</v>
-          </cell>
-          <cell r="I44">
-            <v>6.6203782334923744E-3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>9.1189853847026842E-3</v>
-          </cell>
-          <cell r="E45">
-            <v>3069</v>
-          </cell>
-          <cell r="F45">
-            <v>3069</v>
-          </cell>
-          <cell r="I45">
-            <v>6.2574571929872036E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>9.6794543787837046E-3</v>
-          </cell>
-          <cell r="E46">
-            <v>3069</v>
-          </cell>
-          <cell r="F46">
-            <v>3069</v>
-          </cell>
-          <cell r="I46">
-            <v>6.6338558681309223E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>9.2620719224214554E-3</v>
-          </cell>
-          <cell r="E47">
-            <v>3069</v>
-          </cell>
-          <cell r="F47">
-            <v>3069</v>
-          </cell>
-          <cell r="I47">
-            <v>6.4555141143500805E-3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>9.3640899285674095E-3</v>
-          </cell>
-          <cell r="E48">
-            <v>3069</v>
-          </cell>
-          <cell r="F48">
-            <v>3069</v>
-          </cell>
-          <cell r="I48">
-            <v>6.4301830716431141E-3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>1.5272485092282295E-2</v>
-          </cell>
-          <cell r="E49">
-            <v>3069</v>
-          </cell>
-          <cell r="F49">
-            <v>3069</v>
-          </cell>
-          <cell r="I49">
-            <v>6.4523830078542233E-3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>9.2117870226502419E-3</v>
-          </cell>
-          <cell r="E50">
-            <v>3069</v>
-          </cell>
-          <cell r="F50">
-            <v>3069</v>
-          </cell>
-          <cell r="I50">
-            <v>6.4383889548480511E-3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>9.8110316321253777E-3</v>
-          </cell>
-          <cell r="E51">
-            <v>3069</v>
-          </cell>
-          <cell r="F51">
-            <v>3069</v>
-          </cell>
-          <cell r="I51">
-            <v>6.6731651313602924E-3</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>9.7056608647108078E-3</v>
-          </cell>
-          <cell r="E52">
-            <v>3069</v>
-          </cell>
-          <cell r="F52">
-            <v>3069</v>
-          </cell>
-          <cell r="I52">
-            <v>6.5490310080349445E-3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>8.6049521341919899E-3</v>
-          </cell>
-          <cell r="E53">
-            <v>3069</v>
-          </cell>
-          <cell r="F53">
-            <v>3069</v>
-          </cell>
-          <cell r="I53">
-            <v>6.0213170945644379E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>9.2829028144478798E-3</v>
-          </cell>
-          <cell r="E54">
-            <v>3069</v>
-          </cell>
-          <cell r="F54">
-            <v>3069</v>
-          </cell>
-          <cell r="I54">
-            <v>6.5849968232214451E-3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>9.2550907284021378E-3</v>
-          </cell>
-          <cell r="E55">
-            <v>3069</v>
-          </cell>
-          <cell r="F55">
-            <v>3069</v>
-          </cell>
-          <cell r="I55">
-            <v>6.4537147991359234E-3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>9.2893093824386597E-3</v>
-          </cell>
-          <cell r="E56">
-            <v>3069</v>
-          </cell>
-          <cell r="F56">
-            <v>3069</v>
-          </cell>
-          <cell r="I56">
-            <v>6.4657218754291534E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>8.6163496598601341E-3</v>
-          </cell>
-          <cell r="E57">
-            <v>3069</v>
-          </cell>
-          <cell r="F57">
-            <v>3069</v>
-          </cell>
-          <cell r="I57">
-            <v>6.1049610376358032E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>8.874574676156044E-3</v>
-          </cell>
-          <cell r="E58">
-            <v>3069</v>
-          </cell>
-          <cell r="F58">
-            <v>3069</v>
-          </cell>
-          <cell r="I58">
-            <v>6.3810981810092926E-3</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>9.1357063502073288E-3</v>
-          </cell>
-          <cell r="E59">
-            <v>3069</v>
-          </cell>
-          <cell r="F59">
-            <v>3069</v>
-          </cell>
-          <cell r="I59">
-            <v>6.4786560833454132E-3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>9.0540749952197075E-3</v>
-          </cell>
-          <cell r="E60">
-            <v>3069</v>
-          </cell>
-          <cell r="F60">
-            <v>3069</v>
-          </cell>
-          <cell r="I60">
-            <v>6.1508999206125736E-3</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>9.2314919456839561E-3</v>
-          </cell>
-          <cell r="E61">
-            <v>3069</v>
-          </cell>
-          <cell r="F61">
-            <v>3069</v>
-          </cell>
-          <cell r="I61">
-            <v>6.5769781358540058E-3</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>8.8917771354317665E-3</v>
-          </cell>
-          <cell r="E62">
-            <v>3069</v>
-          </cell>
-          <cell r="F62">
-            <v>3069</v>
-          </cell>
-          <cell r="I62">
-            <v>6.1862119473516941E-3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>9.2640137299895287E-3</v>
-          </cell>
-          <cell r="E63">
-            <v>3069</v>
-          </cell>
-          <cell r="F63">
-            <v>3069</v>
-          </cell>
-          <cell r="I63">
-            <v>6.5510119311511517E-3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>8.7333256378769875E-3</v>
-          </cell>
-          <cell r="E64">
-            <v>3069</v>
-          </cell>
-          <cell r="F64">
-            <v>3069</v>
-          </cell>
-          <cell r="I64">
-            <v>6.0730432160198689E-3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>1.537642814218998E-2</v>
-          </cell>
-          <cell r="E65">
-            <v>3069</v>
-          </cell>
-          <cell r="F65">
-            <v>3069</v>
-          </cell>
-          <cell r="I65">
-            <v>6.5120561048388481E-3</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>8.976510725915432E-3</v>
-          </cell>
-          <cell r="E66">
-            <v>3069</v>
-          </cell>
-          <cell r="F66">
-            <v>3069</v>
-          </cell>
-          <cell r="I66">
-            <v>6.2427669763565063E-3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>9.1532953083515167E-3</v>
-          </cell>
-          <cell r="E67">
-            <v>3069</v>
-          </cell>
-          <cell r="F67">
-            <v>3069</v>
-          </cell>
-          <cell r="I67">
-            <v>6.2920618802309036E-3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>9.0412208810448647E-3</v>
-          </cell>
-          <cell r="E68">
-            <v>3069</v>
-          </cell>
-          <cell r="F68">
-            <v>3069</v>
-          </cell>
-          <cell r="I68">
-            <v>6.3645178452134132E-3</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>8.935045450925827E-3</v>
-          </cell>
-          <cell r="E69">
-            <v>3069</v>
-          </cell>
-          <cell r="F69">
-            <v>3069</v>
-          </cell>
-          <cell r="I69">
-            <v>6.3096862286329269E-3</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>9.0358201414346695E-3</v>
-          </cell>
-          <cell r="E70">
-            <v>3069</v>
-          </cell>
-          <cell r="F70">
-            <v>3069</v>
-          </cell>
-          <cell r="I70">
-            <v>6.3574612140655518E-3</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>9.0753305703401566E-3</v>
-          </cell>
-          <cell r="E71">
-            <v>3069</v>
-          </cell>
-          <cell r="F71">
-            <v>3069</v>
-          </cell>
-          <cell r="I71">
-            <v>6.4395708031952381E-3</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>8.8409231975674629E-3</v>
-          </cell>
-          <cell r="E72">
-            <v>3069</v>
-          </cell>
-          <cell r="F72">
-            <v>3069</v>
-          </cell>
-          <cell r="I72">
-            <v>6.1199399642646313E-3</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>9.0203890576958656E-3</v>
-          </cell>
-          <cell r="E73">
-            <v>3069</v>
-          </cell>
-          <cell r="F73">
-            <v>3069</v>
-          </cell>
-          <cell r="I73">
-            <v>6.2789600342512131E-3</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>8.8618183508515358E-3</v>
-          </cell>
-          <cell r="E74">
-            <v>3069</v>
-          </cell>
-          <cell r="F74">
-            <v>3069</v>
-          </cell>
-          <cell r="I74">
-            <v>6.1872070655226707E-3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>8.9349318295717239E-3</v>
-          </cell>
-          <cell r="E75">
-            <v>3069</v>
-          </cell>
-          <cell r="F75">
-            <v>3069</v>
-          </cell>
-          <cell r="I75">
-            <v>6.1739408411085606E-3</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>9.2052090913057327E-3</v>
-          </cell>
-          <cell r="E76">
-            <v>3069</v>
-          </cell>
-          <cell r="F76">
-            <v>3069</v>
-          </cell>
-          <cell r="I76">
-            <v>6.4532090909779072E-3</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>9.1131515800952911E-3</v>
-          </cell>
-          <cell r="E77">
-            <v>3069</v>
-          </cell>
-          <cell r="F77">
-            <v>3069</v>
-          </cell>
-          <cell r="I77">
-            <v>6.4467601478099823E-3</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>8.9895911514759064E-3</v>
-          </cell>
-          <cell r="E78">
-            <v>3069</v>
-          </cell>
-          <cell r="F78">
-            <v>3069</v>
-          </cell>
-          <cell r="I78">
-            <v>6.2821758911013603E-3</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>9.0110516175627708E-3</v>
-          </cell>
-          <cell r="E79">
-            <v>3069</v>
-          </cell>
-          <cell r="F79">
-            <v>3069</v>
-          </cell>
-          <cell r="I79">
-            <v>6.2137041240930557E-3</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>8.8102193549275398E-3</v>
-          </cell>
-          <cell r="E80">
-            <v>3069</v>
-          </cell>
-          <cell r="F80">
-            <v>3069</v>
-          </cell>
-          <cell r="I80">
-            <v>6.2309820204973221E-3</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>1.5256142243742945E-2</v>
-          </cell>
-          <cell r="E81">
-            <v>3069</v>
-          </cell>
-          <cell r="F81">
-            <v>3069</v>
-          </cell>
-          <cell r="I81">
-            <v>6.2085641548037529E-3</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>9.0239858254790306E-3</v>
-          </cell>
-          <cell r="E82">
-            <v>3069</v>
-          </cell>
-          <cell r="F82">
-            <v>3069</v>
-          </cell>
-          <cell r="I82">
-            <v>6.3715619035065174E-3</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>9.0373605489730835E-3</v>
-          </cell>
-          <cell r="E83">
-            <v>3069</v>
-          </cell>
-          <cell r="F83">
-            <v>3069</v>
-          </cell>
-          <cell r="I83">
-            <v>6.3051921315491199E-3</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>9.3641411513090134E-3</v>
-          </cell>
-          <cell r="E84">
-            <v>3069</v>
-          </cell>
-          <cell r="F84">
-            <v>3069</v>
-          </cell>
-          <cell r="I84">
-            <v>6.5168491564691067E-3</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>8.9214341714978218E-3</v>
-          </cell>
-          <cell r="E85">
-            <v>3069</v>
-          </cell>
-          <cell r="F85">
-            <v>3069</v>
-          </cell>
-          <cell r="I85">
-            <v>6.2210359610617161E-3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>9.1957766562700272E-3</v>
-          </cell>
-          <cell r="E86">
-            <v>3069</v>
-          </cell>
-          <cell r="F86">
-            <v>3069</v>
-          </cell>
-          <cell r="I86">
-            <v>6.5074609592556953E-3</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>9.2428950592875481E-3</v>
-          </cell>
-          <cell r="E87">
-            <v>3069</v>
-          </cell>
-          <cell r="F87">
-            <v>3069</v>
-          </cell>
-          <cell r="I87">
-            <v>6.4599472098052502E-3</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>9.3402024358510954E-3</v>
-          </cell>
-          <cell r="E88">
-            <v>3069</v>
-          </cell>
-          <cell r="F88">
-            <v>3069</v>
-          </cell>
-          <cell r="I88">
-            <v>6.5911309793591499E-3</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>8.9289629831910133E-3</v>
-          </cell>
-          <cell r="E89">
-            <v>3069</v>
-          </cell>
-          <cell r="F89">
-            <v>3069</v>
-          </cell>
-          <cell r="I89">
-            <v>6.2985541298985481E-3</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>9.7692292183637619E-3</v>
-          </cell>
-          <cell r="E90">
-            <v>3069</v>
-          </cell>
-          <cell r="F90">
-            <v>3069</v>
-          </cell>
-          <cell r="I90">
-            <v>6.5268781036138535E-3</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>9.4018420204520243E-3</v>
-          </cell>
-          <cell r="E91">
-            <v>3069</v>
-          </cell>
-          <cell r="F91">
-            <v>3069</v>
-          </cell>
-          <cell r="I91">
-            <v>6.4808321185410023E-3</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>8.7121706455945969E-3</v>
-          </cell>
-          <cell r="E92">
-            <v>3069</v>
-          </cell>
-          <cell r="F92">
-            <v>3069</v>
-          </cell>
-          <cell r="I92">
-            <v>6.1670881696045399E-3</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>1.0979688726365568E-2</v>
-          </cell>
-          <cell r="E93">
-            <v>3069</v>
-          </cell>
-          <cell r="F93">
-            <v>3069</v>
-          </cell>
-          <cell r="I93">
-            <v>7.6795909553766251E-3</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>9.2720938846468925E-3</v>
-          </cell>
-          <cell r="E94">
-            <v>3069</v>
-          </cell>
-          <cell r="F94">
-            <v>3069</v>
-          </cell>
-          <cell r="I94">
-            <v>6.6581550054252148E-3</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>1.1278003454208374E-2</v>
-          </cell>
-          <cell r="E95">
-            <v>3069</v>
-          </cell>
-          <cell r="F95">
-            <v>3069</v>
-          </cell>
-          <cell r="I95">
-            <v>7.6732579618692398E-3</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>1.1197579093277456E-2</v>
-          </cell>
-          <cell r="E96">
-            <v>3069</v>
-          </cell>
-          <cell r="F96">
-            <v>3069</v>
-          </cell>
-          <cell r="I96">
-            <v>7.5252060778439054E-3</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>1.8177494406700134E-2</v>
-          </cell>
-          <cell r="E97">
-            <v>3069</v>
-          </cell>
-          <cell r="F97">
-            <v>3069</v>
-          </cell>
-          <cell r="I97">
-            <v>8.0647710710763931E-3</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>9.5392875373363495E-3</v>
-          </cell>
-          <cell r="E98">
-            <v>3069</v>
-          </cell>
-          <cell r="F98">
-            <v>3069</v>
-          </cell>
-          <cell r="I98">
-            <v>6.4638848416507244E-3</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>1.0185524821281431E-2</v>
-          </cell>
-          <cell r="E99">
-            <v>3069</v>
-          </cell>
-          <cell r="F99">
-            <v>3069</v>
-          </cell>
-          <cell r="I99">
-            <v>6.351349875330925E-3</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>9.653160348534584E-3</v>
-          </cell>
-          <cell r="E100">
-            <v>3069</v>
-          </cell>
-          <cell r="F100">
-            <v>3069</v>
-          </cell>
-          <cell r="I100">
-            <v>6.6712819971144199E-3</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>9.7320619970560074E-3</v>
-          </cell>
-          <cell r="E101">
-            <v>3069</v>
-          </cell>
-          <cell r="F101">
-            <v>3069</v>
-          </cell>
-          <cell r="I101">
-            <v>6.4733410254120827E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="I1" t="str">
-            <v>Column1.renderTime</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>1.9999999552965164E-2</v>
-          </cell>
-          <cell r="E2">
-            <v>3069</v>
-          </cell>
-          <cell r="F2">
-            <v>3069</v>
-          </cell>
-          <cell r="I2">
-            <v>5.4609798826277256E-3</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>regular cube again</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>1.9999999552965164E-2</v>
-          </cell>
-          <cell r="E3">
-            <v>3069</v>
-          </cell>
-          <cell r="F3">
-            <v>3069</v>
-          </cell>
-          <cell r="I3">
-            <v>5.4609798826277256E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.3333333432674408</v>
-          </cell>
-          <cell r="E4">
-            <v>6140</v>
-          </cell>
-          <cell r="F4">
-            <v>6140</v>
-          </cell>
-          <cell r="I4">
-            <v>-25259.2265625</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>4.9135394394397736E-2</v>
-          </cell>
-          <cell r="E5">
-            <v>3069</v>
-          </cell>
-          <cell r="F5">
-            <v>3069</v>
-          </cell>
-          <cell r="I5">
-            <v>1.0633969679474831E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>1.6668025404214859E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>3069</v>
-          </cell>
-          <cell r="F6">
-            <v>3069</v>
-          </cell>
-          <cell r="I6">
-            <v>6.5858322195708752E-3</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>1.4890589751303196E-2</v>
-          </cell>
-          <cell r="E7">
-            <v>3069</v>
-          </cell>
-          <cell r="F7">
-            <v>3069</v>
-          </cell>
-          <cell r="I7">
-            <v>5.2628219127655029E-3</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>9.1937826946377754E-3</v>
-          </cell>
-          <cell r="E8">
-            <v>3069</v>
-          </cell>
-          <cell r="F8">
-            <v>3069</v>
-          </cell>
-          <cell r="I8">
-            <v>5.9595238417387009E-3</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>1.363853458315134E-2</v>
-          </cell>
-          <cell r="E9">
-            <v>3069</v>
-          </cell>
-          <cell r="F9">
-            <v>3069</v>
-          </cell>
-          <cell r="I9">
-            <v>5.5829421617090702E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>7.4752829968929291E-3</v>
-          </cell>
-          <cell r="E10">
-            <v>3069</v>
-          </cell>
-          <cell r="F10">
-            <v>3069</v>
-          </cell>
-          <cell r="I10">
-            <v>5.2024670876562604E-3</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>7.9085901379585266E-3</v>
-          </cell>
-          <cell r="E11">
-            <v>3069</v>
-          </cell>
-          <cell r="F11">
-            <v>3069</v>
-          </cell>
-          <cell r="I11">
-            <v>5.6295921094715604E-3</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>7.3491679504513741E-3</v>
-          </cell>
-          <cell r="E12">
-            <v>3069</v>
-          </cell>
-          <cell r="F12">
-            <v>3069</v>
-          </cell>
-          <cell r="I12">
-            <v>5.6295921094715604E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>8.5527943447232246E-3</v>
-          </cell>
-          <cell r="E13">
-            <v>3069</v>
-          </cell>
-          <cell r="F13">
-            <v>3069</v>
-          </cell>
-          <cell r="I13">
-            <v>5.3270291537046432E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>9.3859471380710602E-3</v>
-          </cell>
-          <cell r="E14">
-            <v>3069</v>
-          </cell>
-          <cell r="F14">
-            <v>3069</v>
-          </cell>
-          <cell r="I14">
-            <v>5.3900270722806454E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>1.410618517547846E-2</v>
-          </cell>
-          <cell r="E15">
-            <v>3069</v>
-          </cell>
-          <cell r="F15">
-            <v>3069</v>
-          </cell>
-          <cell r="I15">
-            <v>5.1599489524960518E-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>8.126809261739254E-3</v>
-          </cell>
-          <cell r="E16">
-            <v>3069</v>
-          </cell>
-          <cell r="F16">
-            <v>3069</v>
-          </cell>
-          <cell r="I16">
-            <v>5.5801169946789742E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>7.4719749391078949E-3</v>
-          </cell>
-          <cell r="E17">
-            <v>3069</v>
-          </cell>
-          <cell r="F17">
-            <v>3069</v>
-          </cell>
-          <cell r="I17">
-            <v>5.23380097001791E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>7.6920278370380402E-3</v>
-          </cell>
-          <cell r="E18">
-            <v>3069</v>
-          </cell>
-          <cell r="F18">
-            <v>3069</v>
-          </cell>
-          <cell r="I18">
-            <v>5.23380097001791E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>7.3969587683677673E-3</v>
-          </cell>
-          <cell r="E19">
-            <v>3069</v>
-          </cell>
-          <cell r="F19">
-            <v>3069</v>
-          </cell>
-          <cell r="I19">
-            <v>4.9992441199719906E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>7.6473602093756199E-3</v>
-          </cell>
-          <cell r="E20">
-            <v>3069</v>
-          </cell>
-          <cell r="F20">
-            <v>3069</v>
-          </cell>
-          <cell r="I20">
-            <v>5.2482560276985168E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>7.1939439512789249E-3</v>
-          </cell>
-          <cell r="E21">
-            <v>3069</v>
-          </cell>
-          <cell r="F21">
-            <v>3069</v>
-          </cell>
-          <cell r="I21">
-            <v>5.2482560276985168E-3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>7.5093610212206841E-3</v>
-          </cell>
-          <cell r="E22">
-            <v>3069</v>
-          </cell>
-          <cell r="F22">
-            <v>3069</v>
-          </cell>
-          <cell r="I22">
-            <v>5.0441338680684566E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>7.7162310481071472E-3</v>
-          </cell>
-          <cell r="E23">
-            <v>3069</v>
-          </cell>
-          <cell r="F23">
-            <v>3069</v>
-          </cell>
-          <cell r="I23">
-            <v>5.0441338680684566E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>7.5654778629541397E-3</v>
-          </cell>
-          <cell r="E24">
-            <v>3069</v>
-          </cell>
-          <cell r="F24">
-            <v>3069</v>
-          </cell>
-          <cell r="I24">
-            <v>5.1295780576765537E-3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>7.5992830097675323E-3</v>
-          </cell>
-          <cell r="E25">
-            <v>3069</v>
-          </cell>
-          <cell r="F25">
-            <v>3069</v>
-          </cell>
-          <cell r="I25">
-            <v>5.1299999468028554E-3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>7.5997058302164078E-3</v>
-          </cell>
-          <cell r="E26">
-            <v>3069</v>
-          </cell>
-          <cell r="F26">
-            <v>3069</v>
-          </cell>
-          <cell r="I26">
-            <v>5.3125531412661084E-3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>1.3447923585772516E-2</v>
-          </cell>
-          <cell r="E27">
-            <v>3069</v>
-          </cell>
-          <cell r="F27">
-            <v>3069</v>
-          </cell>
-          <cell r="I27">
-            <v>5.242970772087574E-3</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>7.6954388059675694E-3</v>
-          </cell>
-          <cell r="E28">
-            <v>3069</v>
-          </cell>
-          <cell r="F28">
-            <v>3069</v>
-          </cell>
-          <cell r="I28">
-            <v>5.242970772087574E-3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>7.3378779925405979E-3</v>
-          </cell>
-          <cell r="E29">
-            <v>3069</v>
-          </cell>
-          <cell r="F29">
-            <v>3069</v>
-          </cell>
-          <cell r="I29">
-            <v>5.4217199794948101E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>7.6311351731419563E-3</v>
-          </cell>
-          <cell r="E30">
-            <v>3069</v>
-          </cell>
-          <cell r="F30">
-            <v>3069</v>
-          </cell>
-          <cell r="I30">
-            <v>5.0046080723404884E-3</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>7.6701878570020199E-3</v>
-          </cell>
-          <cell r="E31">
-            <v>3069</v>
-          </cell>
-          <cell r="F31">
-            <v>3069</v>
-          </cell>
-          <cell r="I31">
-            <v>5.0046080723404884E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>7.2352872230112553E-3</v>
-          </cell>
-          <cell r="E32">
-            <v>3069</v>
-          </cell>
-          <cell r="F32">
-            <v>3069</v>
-          </cell>
-          <cell r="I32">
-            <v>5.0170118920505047E-3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>7.840057834982872E-3</v>
-          </cell>
-          <cell r="E33">
-            <v>3069</v>
-          </cell>
-          <cell r="F33">
-            <v>3069</v>
-          </cell>
-          <cell r="I33">
-            <v>5.4023042321205139E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>7.1727498434484005E-3</v>
-          </cell>
-          <cell r="E34">
-            <v>3069</v>
-          </cell>
-          <cell r="F34">
-            <v>3069</v>
-          </cell>
-          <cell r="I34">
-            <v>5.0201970152556896E-3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>7.8564900904893875E-3</v>
-          </cell>
-          <cell r="E35">
-            <v>3069</v>
-          </cell>
-          <cell r="F35">
-            <v>3069</v>
-          </cell>
-          <cell r="I35">
-            <v>5.0201970152556896E-3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>7.2586950846016407E-3</v>
-          </cell>
-          <cell r="E36">
-            <v>3069</v>
-          </cell>
-          <cell r="F36">
-            <v>3069</v>
-          </cell>
-          <cell r="I36">
-            <v>5.4169208742678165E-3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>7.4603389948606491E-3</v>
-          </cell>
-          <cell r="E37">
-            <v>3069</v>
-          </cell>
-          <cell r="F37">
-            <v>3069</v>
-          </cell>
-          <cell r="I37">
-            <v>5.2436799742281437E-3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>7.5374618172645569E-3</v>
-          </cell>
-          <cell r="E38">
-            <v>3069</v>
-          </cell>
-          <cell r="F38">
-            <v>3069</v>
-          </cell>
-          <cell r="I38">
-            <v>5.2436799742281437E-3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>7.5970059260725984E-3</v>
-          </cell>
-          <cell r="E39">
-            <v>3069</v>
-          </cell>
-          <cell r="F39">
-            <v>3069</v>
-          </cell>
-          <cell r="I39">
-            <v>5.0259968265891084E-3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>7.7287182211875924E-3</v>
-          </cell>
-          <cell r="E40">
-            <v>3069</v>
-          </cell>
-          <cell r="F40">
-            <v>3069</v>
-          </cell>
-          <cell r="I40">
-            <v>5.0259968265891084E-3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>7.4368137866258621E-3</v>
-          </cell>
-          <cell r="E41">
-            <v>3069</v>
-          </cell>
-          <cell r="F41">
-            <v>3069</v>
-          </cell>
-          <cell r="I41">
-            <v>5.3731291554868221E-3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>7.4602430686354637E-3</v>
-          </cell>
-          <cell r="E42">
-            <v>3069</v>
-          </cell>
-          <cell r="F42">
-            <v>3069</v>
-          </cell>
-          <cell r="I42">
-            <v>5.0624581053853044E-3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>7.8090517781674862E-3</v>
-          </cell>
-          <cell r="E43">
-            <v>3069</v>
-          </cell>
-          <cell r="F43">
-            <v>3069</v>
-          </cell>
-          <cell r="I43">
-            <v>5.0624581053853044E-3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>7.7739651314914227E-3</v>
-          </cell>
-          <cell r="E44">
-            <v>3069</v>
-          </cell>
-          <cell r="F44">
-            <v>3069</v>
-          </cell>
-          <cell r="I44">
-            <v>5.7959458790719509E-3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>7.5210798531770706E-3</v>
-          </cell>
-          <cell r="E45">
-            <v>3069</v>
-          </cell>
-          <cell r="F45">
-            <v>3069</v>
-          </cell>
-          <cell r="I45">
-            <v>5.4705138318240643E-3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>7.7987848781049252E-3</v>
-          </cell>
-          <cell r="E46">
-            <v>3069</v>
-          </cell>
-          <cell r="F46">
-            <v>3069</v>
-          </cell>
-          <cell r="I46">
-            <v>5.2196299657225609E-3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>1.5344527550041676E-2</v>
-          </cell>
-          <cell r="E47">
-            <v>3069</v>
-          </cell>
-          <cell r="F47">
-            <v>3069</v>
-          </cell>
-          <cell r="I47">
-            <v>5.1750950515270233E-3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>7.8470166772603989E-3</v>
-          </cell>
-          <cell r="E48">
-            <v>3069</v>
-          </cell>
-          <cell r="F48">
-            <v>3069</v>
-          </cell>
-          <cell r="I48">
-            <v>5.1750950515270233E-3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>8.2246642559766769E-3</v>
-          </cell>
-          <cell r="E49">
-            <v>3069</v>
-          </cell>
-          <cell r="F49">
-            <v>3069</v>
-          </cell>
-          <cell r="I49">
-            <v>5.9377169236540803E-3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>9.0790241956710815E-3</v>
-          </cell>
-          <cell r="E50">
-            <v>3069</v>
-          </cell>
-          <cell r="F50">
-            <v>3069</v>
-          </cell>
-          <cell r="I50">
-            <v>6.2404628843069077E-3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>9.9969096481800079E-3</v>
-          </cell>
-          <cell r="E51">
-            <v>3069</v>
-          </cell>
-          <cell r="F51">
-            <v>3069</v>
-          </cell>
-          <cell r="I51">
-            <v>6.652704905718565E-3</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>8.7643563747406006E-3</v>
-          </cell>
-          <cell r="E52">
-            <v>3069</v>
-          </cell>
-          <cell r="F52">
-            <v>3069</v>
-          </cell>
-          <cell r="I52">
-            <v>6.2985308468341827E-3</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>9.4219250604510307E-3</v>
-          </cell>
-          <cell r="E53">
-            <v>3069</v>
-          </cell>
-          <cell r="F53">
-            <v>3069</v>
-          </cell>
-          <cell r="I53">
-            <v>5.79041987657547E-3</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>8.9012850075960159E-3</v>
-          </cell>
-          <cell r="E54">
-            <v>3069</v>
-          </cell>
-          <cell r="F54">
-            <v>3069</v>
-          </cell>
-          <cell r="I54">
-            <v>5.79041987657547E-3</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>1.0174489580094816E-2</v>
-          </cell>
-          <cell r="E55">
-            <v>3069</v>
-          </cell>
-          <cell r="F55">
-            <v>3069</v>
-          </cell>
-          <cell r="I55">
-            <v>6.6233212128281593E-3</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>9.9420156329870241E-3</v>
-          </cell>
-          <cell r="E56">
-            <v>3069</v>
-          </cell>
-          <cell r="F56">
-            <v>3069</v>
-          </cell>
-          <cell r="I56">
-            <v>7.0364908315241337E-3</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>9.5171229913830757E-3</v>
-          </cell>
-          <cell r="E57">
-            <v>3069</v>
-          </cell>
-          <cell r="F57">
-            <v>3069</v>
-          </cell>
-          <cell r="I57">
-            <v>7.0364908315241337E-3</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>1.0081673040986059E-2</v>
-          </cell>
-          <cell r="E58">
-            <v>3069</v>
-          </cell>
-          <cell r="F58">
-            <v>3069</v>
-          </cell>
-          <cell r="I58">
-            <v>6.7389700561761856E-3</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>1.0548151098191738E-2</v>
-          </cell>
-          <cell r="E59">
-            <v>3069</v>
-          </cell>
-          <cell r="F59">
-            <v>3069</v>
-          </cell>
-          <cell r="I59">
-            <v>7.7708871103823185E-3</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>1.0515240952372553E-2</v>
-          </cell>
-          <cell r="E60">
-            <v>3069</v>
-          </cell>
-          <cell r="F60">
-            <v>3069</v>
-          </cell>
-          <cell r="I60">
-            <v>7.7708871103823185E-3</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>7.7664749696850777E-3</v>
-          </cell>
-          <cell r="E61">
-            <v>3069</v>
-          </cell>
-          <cell r="F61">
-            <v>3069</v>
-          </cell>
-          <cell r="I61">
-            <v>4.8757949844002724E-3</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>7.7335829846560964E-3</v>
-          </cell>
-          <cell r="E62">
-            <v>3069</v>
-          </cell>
-          <cell r="F62">
-            <v>3069</v>
-          </cell>
-          <cell r="I62">
-            <v>5.1559889689087868E-3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>1.4725618064403534E-2</v>
-          </cell>
-          <cell r="E63">
-            <v>3069</v>
-          </cell>
-          <cell r="F63">
-            <v>3069</v>
-          </cell>
-          <cell r="I63">
-            <v>5.4242000915110111E-3</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>7.5359749607741833E-3</v>
-          </cell>
-          <cell r="E64">
-            <v>3069</v>
-          </cell>
-          <cell r="F64">
-            <v>3069</v>
-          </cell>
-          <cell r="I64">
-            <v>5.4242000915110111E-3</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>8.2485079765319824E-3</v>
-          </cell>
-          <cell r="E65">
-            <v>3069</v>
-          </cell>
-          <cell r="F65">
-            <v>3069</v>
-          </cell>
-          <cell r="I65">
-            <v>5.4989769123494634E-3</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>6.9711487740278244E-3</v>
-          </cell>
-          <cell r="E66">
-            <v>3069</v>
-          </cell>
-          <cell r="F66">
-            <v>3069</v>
-          </cell>
-          <cell r="I66">
-            <v>5.4989769123494634E-3</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>8.768412284553051E-3</v>
-          </cell>
-          <cell r="E67">
-            <v>3069</v>
-          </cell>
-          <cell r="F67">
-            <v>3069</v>
-          </cell>
-          <cell r="I67">
-            <v>5.4313531145453453E-3</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>7.1894470602273941E-3</v>
-          </cell>
-          <cell r="E68">
-            <v>3069</v>
-          </cell>
-          <cell r="F68">
-            <v>3069</v>
-          </cell>
-          <cell r="I68">
-            <v>5.4313531145453453E-3</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>8.679230697453022E-3</v>
-          </cell>
-          <cell r="E69">
-            <v>3069</v>
-          </cell>
-          <cell r="F69">
-            <v>3069</v>
-          </cell>
-          <cell r="I69">
-            <v>5.9989630244672298E-3</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>7.3983240872621536E-3</v>
-          </cell>
-          <cell r="E70">
-            <v>3069</v>
-          </cell>
-          <cell r="F70">
-            <v>3069</v>
-          </cell>
-          <cell r="I70">
-            <v>5.9989630244672298E-3</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>7.6966960914433002E-3</v>
-          </cell>
-          <cell r="E71">
-            <v>3069</v>
-          </cell>
-          <cell r="F71">
-            <v>3069</v>
-          </cell>
-          <cell r="I71">
-            <v>5.285934079438448E-3</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>7.5166379101574421E-3</v>
-          </cell>
-          <cell r="E72">
-            <v>3069</v>
-          </cell>
-          <cell r="F72">
-            <v>3069</v>
-          </cell>
-          <cell r="I72">
-            <v>5.285934079438448E-3</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>7.8268107026815414E-3</v>
-          </cell>
-          <cell r="E73">
-            <v>3069</v>
-          </cell>
-          <cell r="F73">
-            <v>3069</v>
-          </cell>
-          <cell r="I73">
-            <v>5.4725338704884052E-3</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>7.6694749295711517E-3</v>
-          </cell>
-          <cell r="E74">
-            <v>3069</v>
-          </cell>
-          <cell r="F74">
-            <v>3069</v>
-          </cell>
-          <cell r="I74">
-            <v>5.1319911144673824E-3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>7.2658779099583626E-3</v>
-          </cell>
-          <cell r="E75">
-            <v>3069</v>
-          </cell>
-          <cell r="F75">
-            <v>3069</v>
-          </cell>
-          <cell r="I75">
-            <v>5.0261351279914379E-3</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>8.0273561179637909E-3</v>
-          </cell>
-          <cell r="E76">
-            <v>3069</v>
-          </cell>
-          <cell r="F76">
-            <v>3069</v>
-          </cell>
-          <cell r="I76">
-            <v>5.3427619859576234E-3</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>8.4129348397254944E-3</v>
-          </cell>
-          <cell r="E77">
-            <v>3069</v>
-          </cell>
-          <cell r="F77">
-            <v>3069</v>
-          </cell>
-          <cell r="I77">
-            <v>5.3427619859576234E-3</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>7.9367244616150856E-3</v>
-          </cell>
-          <cell r="E78">
-            <v>3069</v>
-          </cell>
-          <cell r="F78">
-            <v>3069</v>
-          </cell>
-          <cell r="I78">
-            <v>5.2293972112238407E-3</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>8.01131222397089E-3</v>
-          </cell>
-          <cell r="E79">
-            <v>3069</v>
-          </cell>
-          <cell r="F79">
-            <v>3069</v>
-          </cell>
-          <cell r="I79">
-            <v>5.0707249902188778E-3</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>9.8972357809543592E-3</v>
-          </cell>
-          <cell r="E80">
-            <v>3069</v>
-          </cell>
-          <cell r="F80">
-            <v>3069</v>
-          </cell>
-          <cell r="I80">
-            <v>5.0707249902188778E-3</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>8.5333455353975296E-3</v>
-          </cell>
-          <cell r="E81">
-            <v>3069</v>
-          </cell>
-          <cell r="F81">
-            <v>3069</v>
-          </cell>
-          <cell r="I81">
-            <v>5.4133869707584381E-3</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>1.5768250450491905E-2</v>
-          </cell>
-          <cell r="E82">
-            <v>3069</v>
-          </cell>
-          <cell r="F82">
-            <v>3069</v>
-          </cell>
-          <cell r="I82">
-            <v>5.7412371970713139E-3</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>8.6829839274287224E-3</v>
-          </cell>
-          <cell r="E83">
-            <v>3069</v>
-          </cell>
-          <cell r="F83">
-            <v>3069</v>
-          </cell>
-          <cell r="I83">
-            <v>5.7412371970713139E-3</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>7.966567762196064E-3</v>
-          </cell>
-          <cell r="E84">
-            <v>3069</v>
-          </cell>
-          <cell r="F84">
-            <v>3069</v>
-          </cell>
-          <cell r="I84">
-            <v>5.1428452134132394E-3</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>9.405733086168766E-3</v>
-          </cell>
-          <cell r="E85">
-            <v>3069</v>
-          </cell>
-          <cell r="F85">
-            <v>3069</v>
-          </cell>
-          <cell r="I85">
-            <v>6.3645727932453164E-3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>9.1874971985816956E-3</v>
-          </cell>
-          <cell r="E86">
-            <v>3069</v>
-          </cell>
-          <cell r="F86">
-            <v>3069</v>
-          </cell>
-          <cell r="I86">
-            <v>6.6018779762089252E-3</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>8.8949389755725861E-3</v>
-          </cell>
-          <cell r="E87">
-            <v>3069</v>
-          </cell>
-          <cell r="F87">
-            <v>3069</v>
-          </cell>
-          <cell r="I87">
-            <v>5.9674750082194805E-3</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>1.1305594816803932E-2</v>
-          </cell>
-          <cell r="E88">
-            <v>3069</v>
-          </cell>
-          <cell r="F88">
-            <v>3069</v>
-          </cell>
-          <cell r="I88">
-            <v>6.6372468136250973E-3</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>9.2126522213220596E-3</v>
-          </cell>
-          <cell r="E89">
-            <v>3069</v>
-          </cell>
-          <cell r="F89">
-            <v>3069</v>
-          </cell>
-          <cell r="I89">
-            <v>5.6656692177057266E-3</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>8.6327735334634781E-3</v>
-          </cell>
-          <cell r="E90">
-            <v>3069</v>
-          </cell>
-          <cell r="F90">
-            <v>3069</v>
-          </cell>
-          <cell r="I90">
-            <v>6.0803871601819992E-3</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>1.4459105208516119E-2</v>
-          </cell>
-          <cell r="E91">
-            <v>3069</v>
-          </cell>
-          <cell r="F91">
-            <v>3069</v>
-          </cell>
-          <cell r="I91">
-            <v>5.2190050482749939E-3</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>9.5529397949576378E-3</v>
-          </cell>
-          <cell r="E92">
-            <v>3069</v>
-          </cell>
-          <cell r="F92">
-            <v>3069</v>
-          </cell>
-          <cell r="I92">
-            <v>5.6583201512694359E-3</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>8.2297259941697121E-3</v>
-          </cell>
-          <cell r="E93">
-            <v>3069</v>
-          </cell>
-          <cell r="F93">
-            <v>3069</v>
-          </cell>
-          <cell r="I93">
-            <v>5.6719770655035973E-3</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>7.9249413684010506E-3</v>
-          </cell>
-          <cell r="E94">
-            <v>3069</v>
-          </cell>
-          <cell r="F94">
-            <v>3069</v>
-          </cell>
-          <cell r="I94">
-            <v>5.452633835375309E-3</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>1.0138834826648235E-2</v>
-          </cell>
-          <cell r="E95">
-            <v>3069</v>
-          </cell>
-          <cell r="F95">
-            <v>3069</v>
-          </cell>
-          <cell r="I95">
-            <v>5.2895420230925083E-3</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>1.4546407386660576E-2</v>
-          </cell>
-          <cell r="E96">
-            <v>3069</v>
-          </cell>
-          <cell r="F96">
-            <v>3069</v>
-          </cell>
-          <cell r="I96">
-            <v>5.3702760487794876E-3</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>1.408496405929327E-2</v>
-          </cell>
-          <cell r="E97">
-            <v>3069</v>
-          </cell>
-          <cell r="F97">
-            <v>3069</v>
-          </cell>
-          <cell r="I97">
-            <v>5.2088028751313686E-3</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>8.0696232616901398E-3</v>
-          </cell>
-          <cell r="E98">
-            <v>3069</v>
-          </cell>
-          <cell r="F98">
-            <v>3069</v>
-          </cell>
-          <cell r="I98">
-            <v>5.3881499916315079E-3</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>7.8223207965493202E-3</v>
-          </cell>
-          <cell r="E99">
-            <v>3069</v>
-          </cell>
-          <cell r="F99">
-            <v>3069</v>
-          </cell>
-          <cell r="I99">
-            <v>5.4393550381064415E-3</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>1.1071605607867239E-2</v>
-          </cell>
-          <cell r="E100">
-            <v>3069</v>
-          </cell>
-          <cell r="F100">
-            <v>3069</v>
-          </cell>
-          <cell r="I100">
-            <v>5.2438611164689064E-3</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>1.0409151203930378E-2</v>
-          </cell>
-          <cell r="E101">
-            <v>3069</v>
-          </cell>
-          <cell r="F101">
-            <v>3069</v>
-          </cell>
-          <cell r="I101">
-            <v>8.4570711478590965E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44908,10 +40373,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73ECF39C-720C-2B4F-B0BF-683B6C25BF69}">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44925,15 +40390,18 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="T23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Tree Analisys.xlsx
+++ b/Tree Analisys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yre03/Dev/Saxion/TreeTerrainAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B97215-3B8E-1C45-B3EA-1D5295C0F321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685FB0DD-BA90-BA42-A1F4-196EDB2E6F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18720" activeTab="7" xr2:uid="{7D50D59F-392A-584E-BF7A-3487F0A28FF5}"/>
   </bookViews>

--- a/Tree Analisys.xlsx
+++ b/Tree Analisys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yre03/Dev/Saxion/TreeTerrainAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685FB0DD-BA90-BA42-A1F4-196EDB2E6F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A5D223-BAAF-1547-A2E2-1A9599FF33E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18720" activeTab="7" xr2:uid="{7D50D59F-392A-584E-BF7A-3487F0A28FF5}"/>
   </bookViews>
@@ -52721,8 +52721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73ECF39C-720C-2B4F-B0BF-683B6C25BF69}">
   <dimension ref="B2:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
